--- a/VitalRates.xlsx
+++ b/VitalRates.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jelly\Documents\ColoradoRiverInverts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kurthena\Documents\ColoradoRiverInverts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6015A51E-391F-40CE-A024-11B67AF63582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5064" yWindow="2268" windowWidth="17280" windowHeight="8976" firstSheet="5" activeTab="7" xr2:uid="{5BBB9DFD-573C-4E7C-88D7-10047BA5B2E6}"/>
+    <workbookView xWindow="5070" yWindow="2265" windowWidth="17280" windowHeight="8970" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="To Read" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <sheet name="NZMS Mortality Rates" sheetId="11" r:id="rId10"/>
     <sheet name="Hydropsyche Mortality Rates" sheetId="9" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1037,7 +1036,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1419,16 +1418,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C926AA-9D38-4D93-BFDF-BF59E476DC49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>65</v>
       </c>
@@ -1436,12 +1435,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>67</v>
       </c>
@@ -1449,7 +1448,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>68</v>
       </c>
@@ -1457,7 +1456,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>69</v>
       </c>
@@ -1465,7 +1464,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>70</v>
       </c>
@@ -1473,7 +1472,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>71</v>
       </c>
@@ -1481,7 +1480,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>72</v>
       </c>
@@ -1489,7 +1488,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>74</v>
       </c>
@@ -1497,7 +1496,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>73</v>
       </c>
@@ -1505,7 +1504,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>75</v>
       </c>
@@ -1513,12 +1512,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -1529,7 +1528,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -1537,7 +1536,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>167</v>
       </c>
@@ -1545,67 +1544,67 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>196</v>
       </c>
@@ -1616,16 +1615,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8667F1D1-AF13-44F8-9E56-B9FD16EB0387}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -1645,7 +1644,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>317</v>
       </c>
@@ -1667,7 +1666,7 @@
         <v>0.70297029702970293</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>317</v>
       </c>
@@ -1689,7 +1688,7 @@
         <v>0.70297029702970293</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>317</v>
       </c>
@@ -1711,7 +1710,7 @@
         <v>0.78712871287128716</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>317</v>
       </c>
@@ -1733,7 +1732,7 @@
         <v>1.0165016501650166</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>317</v>
       </c>
@@ -1755,7 +1754,7 @@
         <v>1.0165016501650166</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>223</v>
       </c>
@@ -1783,16 +1782,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA852ABF-0DF7-4B9A-84AF-ADD0D07630EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -1812,7 +1811,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>302</v>
       </c>
@@ -1833,7 +1832,7 @@
         <v>1.7755200000113633</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>302</v>
       </c>
@@ -1854,7 +1853,7 @@
         <v>1.7755200000113633</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>302</v>
       </c>
@@ -1875,7 +1874,7 @@
         <v>1.7755200000113633</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>315</v>
       </c>
@@ -1897,7 +1896,7 @@
         <v>0.76747616525423723</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>316</v>
       </c>
@@ -1919,31 +1918,31 @@
         <v>0.76747616525423723</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H18" s="2"/>
     </row>
   </sheetData>
@@ -1953,16 +1952,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFC38AF-C57B-434A-A547-824BE01D5EB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1991,7 +1990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2017,7 +2016,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2046,7 +2045,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -2057,12 +2056,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>214</v>
       </c>
@@ -2076,16 +2075,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305DC818-8D3E-47F5-BCDD-83A34CDBCF1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -2099,7 +2098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>30</v>
       </c>
@@ -2113,7 +2112,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -2127,7 +2126,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -2141,7 +2140,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -2155,7 +2154,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -2169,7 +2168,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -2183,7 +2182,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -2197,7 +2196,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>5416.55</v>
       </c>
@@ -2208,7 +2207,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>197</v>
       </c>
@@ -2216,7 +2215,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -2224,7 +2223,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>209</v>
       </c>
@@ -2240,16 +2239,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CBC5602-3E54-466A-921D-955EC5338DD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -2287,7 +2289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -2325,7 +2327,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -2363,7 +2365,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -2401,7 +2403,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -2439,7 +2441,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -2477,7 +2479,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -2515,7 +2517,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -2532,7 +2534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -2546,7 +2548,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -2566,16 +2568,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1CE3E2-B118-495B-9371-003A6BFBB1F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
       <selection activeCell="O213" sqref="O213"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -2598,7 +2600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2621,7 +2623,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -2644,7 +2646,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -2667,7 +2669,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>88</v>
       </c>
@@ -2690,7 +2692,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -2713,7 +2715,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -2736,7 +2738,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>93</v>
       </c>
@@ -2759,7 +2761,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -2782,7 +2784,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -2802,7 +2804,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -2822,7 +2824,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -2842,7 +2844,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>138</v>
       </c>
@@ -2862,7 +2864,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -2882,8 +2884,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>79</v>
       </c>
@@ -2903,7 +2905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -2920,7 +2922,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>100</v>
       </c>
@@ -2937,7 +2939,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -2954,7 +2956,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>99</v>
       </c>
@@ -2974,7 +2976,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>100</v>
       </c>
@@ -2994,7 +2996,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -3014,7 +3016,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>99</v>
       </c>
@@ -3034,7 +3036,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>100</v>
       </c>
@@ -3054,7 +3056,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -3074,7 +3076,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>99</v>
       </c>
@@ -3094,7 +3096,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -3114,7 +3116,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>103</v>
       </c>
@@ -3134,7 +3136,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>99</v>
       </c>
@@ -3154,7 +3156,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>100</v>
       </c>
@@ -3174,7 +3176,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>103</v>
       </c>
@@ -3194,7 +3196,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>99</v>
       </c>
@@ -3214,7 +3216,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>100</v>
       </c>
@@ -3234,7 +3236,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>103</v>
       </c>
@@ -3254,7 +3256,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>99</v>
       </c>
@@ -3274,7 +3276,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>100</v>
       </c>
@@ -3294,7 +3296,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>103</v>
       </c>
@@ -3314,7 +3316,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>99</v>
       </c>
@@ -3334,7 +3336,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>100</v>
       </c>
@@ -3354,7 +3356,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>103</v>
       </c>
@@ -3374,7 +3376,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>99</v>
       </c>
@@ -3394,7 +3396,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>100</v>
       </c>
@@ -3414,7 +3416,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>103</v>
       </c>
@@ -3434,7 +3436,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>99</v>
       </c>
@@ -3454,7 +3456,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>100</v>
       </c>
@@ -3474,7 +3476,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>103</v>
       </c>
@@ -3494,7 +3496,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -3514,7 +3516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>107</v>
       </c>
@@ -3534,7 +3536,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>107</v>
       </c>
@@ -3554,7 +3556,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>107</v>
       </c>
@@ -3571,7 +3573,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>79</v>
       </c>
@@ -3588,7 +3590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>127</v>
       </c>
@@ -3605,7 +3607,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>127</v>
       </c>
@@ -3619,7 +3621,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>127</v>
       </c>
@@ -3636,7 +3638,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>79</v>
       </c>
@@ -3653,7 +3655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -3670,7 +3672,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -3687,7 +3689,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -3704,7 +3706,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -3721,7 +3723,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -3738,7 +3740,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -3755,7 +3757,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -3772,7 +3774,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>146</v>
       </c>
@@ -3789,7 +3791,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>146</v>
       </c>
@@ -3806,7 +3808,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>146</v>
       </c>
@@ -3823,7 +3825,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>146</v>
       </c>
@@ -3840,7 +3842,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>146</v>
       </c>
@@ -3857,7 +3859,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>146</v>
       </c>
@@ -3874,7 +3876,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>146</v>
       </c>
@@ -3891,7 +3893,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>148</v>
       </c>
@@ -3908,7 +3910,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>148</v>
       </c>
@@ -3925,7 +3927,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>148</v>
       </c>
@@ -3942,7 +3944,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>148</v>
       </c>
@@ -3959,7 +3961,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>148</v>
       </c>
@@ -3976,7 +3978,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>148</v>
       </c>
@@ -3993,7 +3995,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>148</v>
       </c>
@@ -4010,7 +4012,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>149</v>
       </c>
@@ -4027,7 +4029,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>149</v>
       </c>
@@ -4044,7 +4046,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>149</v>
       </c>
@@ -4061,7 +4063,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>149</v>
       </c>
@@ -4078,7 +4080,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>149</v>
       </c>
@@ -4095,7 +4097,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>149</v>
       </c>
@@ -4112,7 +4114,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>149</v>
       </c>
@@ -4129,7 +4131,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>150</v>
       </c>
@@ -4146,7 +4148,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>150</v>
       </c>
@@ -4163,7 +4165,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>150</v>
       </c>
@@ -4180,7 +4182,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>150</v>
       </c>
@@ -4197,7 +4199,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>150</v>
       </c>
@@ -4214,7 +4216,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>150</v>
       </c>
@@ -4231,7 +4233,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>150</v>
       </c>
@@ -4248,7 +4250,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>147</v>
       </c>
@@ -4265,7 +4267,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>147</v>
       </c>
@@ -4282,7 +4284,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>147</v>
       </c>
@@ -4299,7 +4301,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>147</v>
       </c>
@@ -4316,7 +4318,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>147</v>
       </c>
@@ -4333,7 +4335,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>147</v>
       </c>
@@ -4350,7 +4352,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>147</v>
       </c>
@@ -4374,16 +4376,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B15538-3D4C-42EE-ABFF-D3D33EC7F6D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>218</v>
       </c>
@@ -4415,7 +4417,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>225</v>
       </c>
@@ -4429,7 +4431,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>232</v>
       </c>
@@ -4443,7 +4445,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>234</v>
       </c>
@@ -4457,7 +4459,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>240</v>
       </c>
@@ -4474,7 +4476,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>242</v>
       </c>
@@ -4491,7 +4493,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>244</v>
       </c>
@@ -4508,7 +4510,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>246</v>
       </c>
@@ -4522,7 +4524,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>250</v>
       </c>
@@ -4548,7 +4550,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>253</v>
       </c>
@@ -4574,7 +4576,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>256</v>
       </c>
@@ -4600,7 +4602,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>259</v>
       </c>
@@ -4626,7 +4628,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>262</v>
       </c>
@@ -4649,7 +4651,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>264</v>
       </c>
@@ -4675,7 +4677,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>266</v>
       </c>
@@ -4701,7 +4703,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>268</v>
       </c>
@@ -4724,7 +4726,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
         <v>256</v>
       </c>
@@ -4732,7 +4734,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K18" t="s">
         <v>259</v>
       </c>
@@ -4740,7 +4742,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>272</v>
       </c>
@@ -4751,7 +4753,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>271</v>
       </c>
@@ -4762,7 +4764,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>274</v>
       </c>
@@ -4773,7 +4775,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>277</v>
       </c>
@@ -4784,22 +4786,22 @@
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>284</v>
       </c>
@@ -4810,26 +4812,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70AA0A0D-C8C4-4B95-9301-D0901FBE12F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -4843,12 +4845,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>174</v>
       </c>
@@ -4862,7 +4864,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>176</v>
       </c>
@@ -4873,7 +4875,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>177</v>
       </c>
@@ -4895,7 +4897,7 @@
         <v>2720.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>179</v>
       </c>
@@ -4909,7 +4911,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>180</v>
       </c>
@@ -4923,7 +4925,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>182</v>
       </c>
@@ -4937,7 +4939,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>183</v>
       </c>
@@ -4951,7 +4953,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>185</v>
       </c>
@@ -4965,12 +4967,12 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>187</v>
       </c>
@@ -4984,12 +4986,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>198</v>
       </c>
@@ -5001,16 +5003,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7500D613-561D-4AEF-8987-2D25814E2080}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -5027,7 +5029,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -5059,7 +5061,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>142</v>
       </c>
@@ -5082,7 +5084,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -5102,7 +5104,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -5113,7 +5115,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -5121,7 +5123,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -5147,7 +5149,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>152</v>
       </c>
@@ -5171,7 +5173,7 @@
         <v>8.1495383567679967E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -5195,7 +5197,7 @@
         <v>8.1495383567679967E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -5219,7 +5221,7 @@
         <v>4.6180717355018643E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -5243,7 +5245,7 @@
         <v>0.23090358677509323</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -5267,7 +5269,7 @@
         <v>0.70629332425322633</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -5291,7 +5293,7 @@
         <v>6.5196306854143973E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>99</v>
       </c>
@@ -5323,7 +5325,7 @@
         <v>0.20148148148148148</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>99</v>
       </c>
@@ -5355,7 +5357,7 @@
         <v>0.20148148148148148</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -5388,7 +5390,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>99</v>
       </c>
@@ -5420,7 +5422,7 @@
         <v>0.17444444444444443</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>99</v>
       </c>
@@ -5452,7 +5454,7 @@
         <v>0.17444444444444443</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>99</v>
       </c>
@@ -5484,7 +5486,7 @@
         <v>0.29437499999999994</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>100</v>
       </c>
@@ -5516,7 +5518,7 @@
         <v>0.20148148148148148</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>100</v>
       </c>
@@ -5548,7 +5550,7 @@
         <v>0.20148148148148148</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>100</v>
       </c>
@@ -5580,7 +5582,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>100</v>
       </c>
@@ -5612,7 +5614,7 @@
         <v>0.17444444444444443</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -5644,7 +5646,7 @@
         <v>0.17444444444444443</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>100</v>
       </c>
@@ -5676,7 +5678,7 @@
         <v>0.29437499999999994</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>301</v>
       </c>
@@ -5709,7 +5711,7 @@
         <v>1.7755200000113633</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>301</v>
       </c>
@@ -5742,7 +5744,7 @@
         <v>1.7755200000113633</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>301</v>
       </c>
@@ -5775,7 +5777,7 @@
         <v>1.7755200000113633</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>302</v>
       </c>
@@ -5804,7 +5806,7 @@
         <v>1.7755200000113633</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>302</v>
       </c>
@@ -5833,7 +5835,7 @@
         <v>1.7755200000113633</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>302</v>
       </c>
@@ -5862,7 +5864,7 @@
         <v>1.7755200000113633</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>304</v>
       </c>
@@ -5884,7 +5886,7 @@
         <v>0.1867069486404834</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>304</v>
       </c>
@@ -5906,7 +5908,7 @@
         <v>0.1867069486404834</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>304</v>
       </c>
@@ -5928,7 +5930,7 @@
         <v>0.1867069486404834</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>304</v>
       </c>
@@ -5950,7 +5952,7 @@
         <v>0.1867069486404834</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>304</v>
       </c>
@@ -5972,7 +5974,7 @@
         <v>0.1249412554548506</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>304</v>
       </c>
@@ -5994,7 +5996,7 @@
         <v>0.1249412554548506</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>304</v>
       </c>
@@ -6016,7 +6018,7 @@
         <v>0.1249412554548506</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>304</v>
       </c>
@@ -6038,7 +6040,7 @@
         <v>0.1249412554548506</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>304</v>
       </c>
@@ -6060,7 +6062,7 @@
         <v>0.20389392413561599</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>304</v>
       </c>
@@ -6082,7 +6084,7 @@
         <v>0.20389392413561599</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>304</v>
       </c>
@@ -6104,7 +6106,7 @@
         <v>0.20389392413561599</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>304</v>
       </c>
@@ -6126,7 +6128,7 @@
         <v>0.20389392413561599</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>304</v>
       </c>
@@ -6148,7 +6150,7 @@
         <v>5.5052030882846596E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>304</v>
       </c>
@@ -6170,7 +6172,7 @@
         <v>5.5052030882846596E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>304</v>
       </c>
@@ -6192,7 +6194,7 @@
         <v>5.5052030882846596E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>304</v>
       </c>
@@ -6214,7 +6216,7 @@
         <v>5.5052030882846596E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>305</v>
       </c>
@@ -6236,7 +6238,7 @@
         <v>0.1867069486404834</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>305</v>
       </c>
@@ -6258,7 +6260,7 @@
         <v>0.1867069486404834</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>305</v>
       </c>
@@ -6280,7 +6282,7 @@
         <v>0.1867069486404834</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>305</v>
       </c>
@@ -6302,7 +6304,7 @@
         <v>0.1867069486404834</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>305</v>
       </c>
@@ -6324,7 +6326,7 @@
         <v>0.1249412554548506</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>305</v>
       </c>
@@ -6346,7 +6348,7 @@
         <v>0.1249412554548506</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>305</v>
       </c>
@@ -6368,7 +6370,7 @@
         <v>0.1249412554548506</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>305</v>
       </c>
@@ -6390,7 +6392,7 @@
         <v>0.1249412554548506</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>305</v>
       </c>
@@ -6412,7 +6414,7 @@
         <v>0.20389392413561599</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>305</v>
       </c>
@@ -6434,7 +6436,7 @@
         <v>0.20389392413561599</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>305</v>
       </c>
@@ -6456,7 +6458,7 @@
         <v>0.20389392413561599</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>305</v>
       </c>
@@ -6478,7 +6480,7 @@
         <v>0.20389392413561599</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>305</v>
       </c>
@@ -6500,7 +6502,7 @@
         <v>5.5052030882846596E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>305</v>
       </c>
@@ -6522,7 +6524,7 @@
         <v>5.5052030882846596E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>305</v>
       </c>
@@ -6544,7 +6546,7 @@
         <v>5.5052030882846596E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>305</v>
       </c>
@@ -6566,7 +6568,7 @@
         <v>5.5052030882846596E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>223</v>
       </c>
@@ -6587,7 +6589,7 @@
         <v>0.49856040682529201</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>223</v>
       </c>
@@ -6604,7 +6606,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>223</v>
       </c>
@@ -6621,7 +6623,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>223</v>
       </c>
@@ -6638,7 +6640,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>140</v>
       </c>
@@ -6660,7 +6662,7 @@
         <v>0.41621621621621613</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>140</v>
       </c>
@@ -6682,7 +6684,7 @@
         <v>2.3486486486486484</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>140</v>
       </c>
@@ -6699,11 +6701,11 @@
         <v>0.35</v>
       </c>
       <c r="H71">
-        <f t="shared" ref="H71:H73" si="5">B71/G71</f>
+        <f t="shared" ref="H71:H72" si="5">B71/G71</f>
         <v>0.55714285714285716</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>140</v>
       </c>
@@ -6724,7 +6726,7 @@
         <v>2.842857142857143</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>310</v>
       </c>
@@ -6746,16 +6748,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A865092E-A2A6-40AC-8BF6-BDD754DDC55D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -6775,7 +6777,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>173</v>
       </c>
@@ -6800,7 +6802,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>173</v>
       </c>
@@ -6825,7 +6827,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>173</v>
       </c>
@@ -6850,7 +6852,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>173</v>
       </c>
@@ -6875,7 +6877,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>173</v>
       </c>
@@ -6900,7 +6902,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>173</v>
       </c>
@@ -6925,7 +6927,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>173</v>
       </c>
@@ -6950,7 +6952,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>173</v>
       </c>
@@ -6975,7 +6977,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>173</v>
       </c>
@@ -7000,7 +7002,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>173</v>
       </c>
@@ -7025,7 +7027,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>173</v>
       </c>

--- a/VitalRates.xlsx
+++ b/VitalRates.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="2265" windowWidth="17280" windowHeight="8970" activeTab="4"/>
+    <workbookView xWindow="5070" yWindow="2265" windowWidth="17280" windowHeight="8970" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="To Read" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="Mortality Rates" sheetId="6" r:id="rId8"/>
     <sheet name="Baetid Mortality Rates" sheetId="10" r:id="rId9"/>
     <sheet name="NZMS Mortality Rates" sheetId="11" r:id="rId10"/>
-    <sheet name="Hydropsyche Mortality Rates" sheetId="9" r:id="rId11"/>
+    <sheet name="Carabidae response to fire" sheetId="15" r:id="rId11"/>
+    <sheet name="Hydropsyche Mortality Rates" sheetId="9" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="346">
   <si>
     <t>Species</t>
   </si>
@@ -1032,12 +1033,75 @@
   <si>
     <t>Max Event Discharge/Bankfull Discharge</t>
   </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Time since fire</t>
+  </si>
+  <si>
+    <t>Carabidae</t>
+  </si>
+  <si>
+    <t>Niwa &amp; Peck 2022</t>
+  </si>
+  <si>
+    <t>Pre</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>Pasimachus obsoletus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parmenter et al </t>
+  </si>
+  <si>
+    <t>Mortality (%)</t>
+  </si>
+  <si>
+    <t>Stanton 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calathus opaculus </t>
+  </si>
+  <si>
+    <t>Galerita janus</t>
+  </si>
+  <si>
+    <t>Poecilus lucublanda</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Bess et al. 2002</t>
+  </si>
+  <si>
+    <t>Collett 2000</t>
+  </si>
+  <si>
+    <t>Med</t>
+  </si>
+  <si>
+    <t>Carabidae + Staphylinidae</t>
+  </si>
+  <si>
+    <t>Verble-Pearson and Yanobiak 2010</t>
+  </si>
+  <si>
+    <t>Wikars 1995</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1077,6 +1141,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1098,13 +1175,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1783,10 +1863,708 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2">
+        <v>1091.0999999999999</v>
+      </c>
+      <c r="C2">
+        <v>553.6</v>
+      </c>
+      <c r="D2">
+        <f>1-C2/B2</f>
+        <v>0.49262212446155251</v>
+      </c>
+      <c r="E2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B4">
+        <v>476</v>
+      </c>
+      <c r="C4" s="6">
+        <v>12.6</v>
+      </c>
+      <c r="D4">
+        <f>1-(C4/B4)</f>
+        <v>0.97352941176470587</v>
+      </c>
+      <c r="E4" t="s">
+        <v>326</v>
+      </c>
+      <c r="F4" t="s">
+        <v>335</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B5">
+        <v>22.8</v>
+      </c>
+      <c r="C5" s="6">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D28" si="0">1-(C5/B5)</f>
+        <v>0.17105263157894746</v>
+      </c>
+      <c r="E5" t="s">
+        <v>326</v>
+      </c>
+      <c r="F5" t="s">
+        <v>335</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B6">
+        <v>74.5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1.53</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.9794630872483221</v>
+      </c>
+      <c r="E6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F6" t="s">
+        <v>335</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B7">
+        <v>2.71</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2.11</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.22140221402214022</v>
+      </c>
+      <c r="E7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>328</v>
+      </c>
+      <c r="B8">
+        <v>105</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1.19</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.98866666666666669</v>
+      </c>
+      <c r="E8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F8" t="s">
+        <v>335</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B9">
+        <v>31.2</v>
+      </c>
+      <c r="C9" s="6">
+        <v>27.2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.12820512820512819</v>
+      </c>
+      <c r="E9" t="s">
+        <v>326</v>
+      </c>
+      <c r="F9" t="s">
+        <v>335</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>328</v>
+      </c>
+      <c r="B10">
+        <v>132</v>
+      </c>
+      <c r="C10" s="6">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.96386363636363637</v>
+      </c>
+      <c r="E10" t="s">
+        <v>326</v>
+      </c>
+      <c r="F10" t="s">
+        <v>335</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>328</v>
+      </c>
+      <c r="B11">
+        <v>11.7</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1.96</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.83247863247863241</v>
+      </c>
+      <c r="E11" t="s">
+        <v>326</v>
+      </c>
+      <c r="F11" t="s">
+        <v>335</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>328</v>
+      </c>
+      <c r="B12">
+        <v>183</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1.53</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.99163934426229505</v>
+      </c>
+      <c r="E12" t="s">
+        <v>326</v>
+      </c>
+      <c r="F12" t="s">
+        <v>335</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>328</v>
+      </c>
+      <c r="B13">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="C13" s="6">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.26136363636363646</v>
+      </c>
+      <c r="E13" t="s">
+        <v>326</v>
+      </c>
+      <c r="F13" t="s">
+        <v>335</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>328</v>
+      </c>
+      <c r="B14">
+        <v>36.9</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2.96</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.91978319783197837</v>
+      </c>
+      <c r="E14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F14" t="s">
+        <v>335</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B15">
+        <v>3.04</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1.02</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.66447368421052633</v>
+      </c>
+      <c r="E15" t="s">
+        <v>326</v>
+      </c>
+      <c r="F15" t="s">
+        <v>335</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>328</v>
+      </c>
+      <c r="B16">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="C16" s="6">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.88080939947780679</v>
+      </c>
+      <c r="E16" t="s">
+        <v>326</v>
+      </c>
+      <c r="F16" t="s">
+        <v>335</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>328</v>
+      </c>
+      <c r="B17">
+        <v>6.52</v>
+      </c>
+      <c r="C17" s="6">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-2.0521472392638036</v>
+      </c>
+      <c r="E17" t="s">
+        <v>326</v>
+      </c>
+      <c r="F17" t="s">
+        <v>335</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>328</v>
+      </c>
+      <c r="B18">
+        <v>27.9</v>
+      </c>
+      <c r="C18" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.58781362007168458</v>
+      </c>
+      <c r="E18" t="s">
+        <v>326</v>
+      </c>
+      <c r="F18" t="s">
+        <v>335</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>328</v>
+      </c>
+      <c r="B19">
+        <v>7.42</v>
+      </c>
+      <c r="C19" s="6">
+        <v>11.1</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>-0.49595687331536387</v>
+      </c>
+      <c r="E19" t="s">
+        <v>326</v>
+      </c>
+      <c r="F19" t="s">
+        <v>335</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B20">
+        <v>38</v>
+      </c>
+      <c r="C20" s="6">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0.92105263157894735</v>
+      </c>
+      <c r="E20" t="s">
+        <v>342</v>
+      </c>
+      <c r="F20" t="s">
+        <v>340</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>342</v>
+      </c>
+      <c r="F21" t="s">
+        <v>340</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>339</v>
+      </c>
+      <c r="F22" t="s">
+        <v>340</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B23">
+        <v>228</v>
+      </c>
+      <c r="C23" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0.97938596491228069</v>
+      </c>
+      <c r="E23" t="s">
+        <v>339</v>
+      </c>
+      <c r="F23" t="s">
+        <v>341</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B24">
+        <v>148</v>
+      </c>
+      <c r="C24" s="6">
+        <v>6.58</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0.9555405405405405</v>
+      </c>
+      <c r="E24" t="s">
+        <v>339</v>
+      </c>
+      <c r="F24" t="s">
+        <v>341</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B25">
+        <v>1.3</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="E25" t="s">
+        <v>339</v>
+      </c>
+      <c r="F25" t="s">
+        <v>344</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B26">
+        <v>1.3</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="E26" t="s">
+        <v>326</v>
+      </c>
+      <c r="F26" t="s">
+        <v>344</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B27">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="C27" s="6">
+        <v>22.5</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>-0.37195121951219523</v>
+      </c>
+      <c r="E27" t="s">
+        <v>326</v>
+      </c>
+      <c r="F27" t="s">
+        <v>345</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B28">
+        <v>15.5</v>
+      </c>
+      <c r="C28" s="6">
+        <v>8.58</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0.44645161290322577</v>
+      </c>
+      <c r="E28" t="s">
+        <v>326</v>
+      </c>
+      <c r="F28" t="s">
+        <v>345</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2571,7 +3349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+    <sheetView topLeftCell="A78" workbookViewId="0">
       <selection activeCell="O213" sqref="O213"/>
     </sheetView>
   </sheetViews>
@@ -4379,11 +5157,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="80.42578125" customWidth="1"/>
+    <col min="4" max="4" width="5" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" customWidth="1"/>
+    <col min="6" max="6" width="43.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -5006,7 +5792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>

--- a/VitalRates.xlsx
+++ b/VitalRates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jelly\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jelly\Documents\ColoradoRiverInverts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60E5C8D-D29C-44FA-8F8F-EAA38994D436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F6FA95-AF7B-47BD-90C7-F82FBF1FBEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2377" yWindow="3045" windowWidth="17281" windowHeight="9983" firstSheet="9" activeTab="11" xr2:uid="{5BBB9DFD-573C-4E7C-88D7-10047BA5B2E6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" firstSheet="9" activeTab="11" xr2:uid="{5BBB9DFD-573C-4E7C-88D7-10047BA5B2E6}"/>
   </bookViews>
   <sheets>
     <sheet name="To Read" sheetId="4" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="334">
   <si>
     <t>Species</t>
   </si>
@@ -1064,9 +1064,6 @@
   </si>
   <si>
     <t>Gaufin et al., 1972</t>
-  </si>
-  <si>
-    <t>Korboot 1963</t>
   </si>
 </sst>
 </file>
@@ -3707,10 +3704,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5671E9C7-3191-4841-844A-6745CB47FDD2}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3731,13 +3728,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>9.9999999999999995E-8</v>
+        <v>0.99999990000000005</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>18.8</v>
       </c>
       <c r="C2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -3745,7 +3742,7 @@
         <v>0.99999990000000005</v>
       </c>
       <c r="B3">
-        <v>18.8</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="C3" t="s">
         <v>333</v>
@@ -3756,7 +3753,7 @@
         <v>0.99999990000000005</v>
       </c>
       <c r="B4">
-        <v>20.399999999999999</v>
+        <v>22.1</v>
       </c>
       <c r="C4" t="s">
         <v>333</v>
@@ -3764,10 +3761,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>0.99999990000000005</v>
+        <v>0.9</v>
       </c>
       <c r="B5">
-        <v>22.1</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>333</v>
@@ -3775,10 +3772,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="B6">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>333</v>
@@ -3786,10 +3783,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>0.6</v>
+        <v>0.79</v>
       </c>
       <c r="B7">
-        <v>28</v>
+        <v>29.2</v>
       </c>
       <c r="C7" t="s">
         <v>333</v>
@@ -3797,10 +3794,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>0.79</v>
+        <v>0.45</v>
       </c>
       <c r="B8">
-        <v>29.2</v>
+        <v>31.1</v>
       </c>
       <c r="C8" t="s">
         <v>333</v>
@@ -3808,10 +3805,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>0.45</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9">
-        <v>31.1</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="C9" t="s">
         <v>333</v>
@@ -3819,23 +3816,12 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>9.9999999999999995E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="B10">
-        <v>32.700000000000003</v>
+        <v>36.5</v>
       </c>
       <c r="C10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>1E-8</v>
-      </c>
-      <c r="B11">
-        <v>36.5</v>
-      </c>
-      <c r="C11" t="s">
         <v>333</v>
       </c>
     </row>

--- a/VitalRates.xlsx
+++ b/VitalRates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jelly\Documents\ColoradoRiverInverts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F6FA95-AF7B-47BD-90C7-F82FBF1FBEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6556AD2-9C5D-46A5-9595-D60AEC89D95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" firstSheet="9" activeTab="11" xr2:uid="{5BBB9DFD-573C-4E7C-88D7-10047BA5B2E6}"/>
+    <workbookView xWindow="5700" yWindow="3697" windowWidth="17280" windowHeight="9983" firstSheet="13" activeTab="13" xr2:uid="{5BBB9DFD-573C-4E7C-88D7-10047BA5B2E6}"/>
   </bookViews>
   <sheets>
     <sheet name="To Read" sheetId="4" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="334">
   <si>
     <t>Species</t>
   </si>
@@ -1051,9 +1051,6 @@
     <t>Cox &amp; Rutherford, 2000</t>
   </si>
   <si>
-    <t>Zaranko et al., 1997</t>
-  </si>
-  <si>
     <t>MaturationRate</t>
   </si>
   <si>
@@ -1064,6 +1061,9 @@
   </si>
   <si>
     <t>Gaufin et al., 1972</t>
+  </si>
+  <si>
+    <t>Moffit &amp; James, 2012</t>
   </si>
 </sst>
 </file>
@@ -3706,8 +3706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5671E9C7-3191-4841-844A-6745CB47FDD2}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3734,7 +3734,7 @@
         <v>18.8</v>
       </c>
       <c r="C2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -3745,7 +3745,7 @@
         <v>20.399999999999999</v>
       </c>
       <c r="C3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -3756,7 +3756,7 @@
         <v>22.1</v>
       </c>
       <c r="C4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -3767,7 +3767,7 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -3778,7 +3778,7 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -3789,7 +3789,7 @@
         <v>29.2</v>
       </c>
       <c r="C7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -3800,7 +3800,7 @@
         <v>31.1</v>
       </c>
       <c r="C8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -3811,7 +3811,7 @@
         <v>32.700000000000003</v>
       </c>
       <c r="C9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -3822,7 +3822,7 @@
         <v>36.5</v>
       </c>
       <c r="C10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -3968,10 +3968,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4A60B5-2702-4A70-9CB2-3B17A88B6CEB}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4039,7 +4039,29 @@
         <v>1E-4</v>
       </c>
       <c r="C6" t="s">
-        <v>329</v>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>0.95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>0.95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -7379,7 +7401,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B1" t="s">
         <v>325</v>
@@ -7396,7 +7418,7 @@
         <v>6.9</v>
       </c>
       <c r="C2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -7407,7 +7429,7 @@
         <v>7.66</v>
       </c>
       <c r="C3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -7418,7 +7440,7 @@
         <v>8.67</v>
       </c>
       <c r="C4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -7429,7 +7451,7 @@
         <v>12.1</v>
       </c>
       <c r="C5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -7440,7 +7462,7 @@
         <v>2.86</v>
       </c>
       <c r="C6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -7451,7 +7473,7 @@
         <v>3.28</v>
       </c>
       <c r="C7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -7462,7 +7484,7 @@
         <v>1.35</v>
       </c>
       <c r="C8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -7473,7 +7495,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="C9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -7484,7 +7506,7 @@
         <v>34.4</v>
       </c>
       <c r="C10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/VitalRates.xlsx
+++ b/VitalRates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jelly\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jelly\Documents\ColoradoRiverInverts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60E5C8D-D29C-44FA-8F8F-EAA38994D436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA90181D-3FAF-43F0-A08C-85D0A40785F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2377" yWindow="3045" windowWidth="17281" windowHeight="9983" firstSheet="9" activeTab="11" xr2:uid="{5BBB9DFD-573C-4E7C-88D7-10047BA5B2E6}"/>
+    <workbookView xWindow="3885" yWindow="6180" windowWidth="17280" windowHeight="9982" firstSheet="15" activeTab="17" xr2:uid="{5BBB9DFD-573C-4E7C-88D7-10047BA5B2E6}"/>
   </bookViews>
   <sheets>
     <sheet name="To Read" sheetId="4" r:id="rId1"/>
@@ -25,10 +25,12 @@
     <sheet name="Mortality Rates" sheetId="6" r:id="rId10"/>
     <sheet name="Baetid Mortality Rates" sheetId="10" r:id="rId11"/>
     <sheet name="Hydropsyche Survival Rates " sheetId="16" r:id="rId12"/>
-    <sheet name="Baetid Survival Rates" sheetId="12" r:id="rId13"/>
-    <sheet name="NZMS Survival Rates" sheetId="14" r:id="rId14"/>
-    <sheet name="NZMS Mortality Rates" sheetId="11" r:id="rId15"/>
-    <sheet name="Hydropsyche Mortality Rates" sheetId="9" r:id="rId16"/>
+    <sheet name="Chiro Survival" sheetId="17" r:id="rId13"/>
+    <sheet name="Baetid Survival Rates" sheetId="12" r:id="rId14"/>
+    <sheet name="NZMS Survival Rates" sheetId="14" r:id="rId15"/>
+    <sheet name="NZMS Mortality Rates" sheetId="11" r:id="rId16"/>
+    <sheet name="Hydropsyche Mortality Rates" sheetId="9" r:id="rId17"/>
+    <sheet name="Sheet4" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="339">
   <si>
     <t>Species</t>
   </si>
@@ -1067,6 +1069,18 @@
   </si>
   <si>
     <t>Korboot 1963</t>
+  </si>
+  <si>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>Eggermont &amp; Heiri, 2012</t>
+  </si>
+  <si>
+    <t>Max/Bankful</t>
+  </si>
+  <si>
+    <t>(no mortality - increase)</t>
   </si>
 </sst>
 </file>
@@ -1159,9 +1173,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1199,7 +1213,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1305,7 +1319,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1447,7 +1461,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1654,8 +1668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7500D613-561D-4AEF-8987-2D25814E2080}">
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3400,7 +3414,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3709,7 +3723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5671E9C7-3191-4841-844A-6745CB47FDD2}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -3845,6 +3859,120 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C77117-34E9-45B5-AFFE-43A5629D5643}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>16.43762508</v>
+      </c>
+      <c r="C2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>44.807415470000002</v>
+      </c>
+      <c r="C4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0.30897791499999999</v>
+      </c>
+      <c r="C5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>69.146448509999999</v>
+      </c>
+      <c r="C6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>84.645904290000004</v>
+      </c>
+      <c r="C7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>54.50651311</v>
+      </c>
+      <c r="C8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>9.5137108949999991</v>
+      </c>
+      <c r="C9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648851F1-1B76-483B-BD38-93D8FC0F4DDF}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -3980,7 +4108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4A60B5-2702-4A70-9CB2-3B17A88B6CEB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -4061,7 +4189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8667F1D1-AF13-44F8-9E56-B9FD16EB0387}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -4228,12 +4356,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA852ABF-0DF7-4B9A-84AF-ADD0D07630EA}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4395,6 +4523,257 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826C251F-8D33-462C-AE02-50288781B133}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>0.3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="D2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2">
+        <v>36.8119011</v>
+      </c>
+      <c r="G2">
+        <f>B2/F2</f>
+        <v>8.1495383567679967E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>1.7</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="D3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3">
+        <v>36.8119011</v>
+      </c>
+      <c r="G3">
+        <f>B3/F3</f>
+        <v>4.6180717355018643E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>8.5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="D4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4">
+        <v>36.8119011</v>
+      </c>
+      <c r="G4">
+        <f>B4/F4</f>
+        <v>0.23090358677509323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="D5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5">
+        <v>36.8119011</v>
+      </c>
+      <c r="G5">
+        <f>B5/F5</f>
+        <v>0.70629332425322633</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.747</v>
+      </c>
+      <c r="D6" t="s">
+        <v>300</v>
+      </c>
+      <c r="F6">
+        <v>2.7</v>
+      </c>
+      <c r="G6">
+        <f>B6/F6</f>
+        <v>0.20148148148148148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F7">
+        <v>2.7</v>
+      </c>
+      <c r="G7">
+        <f>B7/F7</f>
+        <v>0.20148148148148148</v>
+      </c>
+      <c r="H7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>300</v>
+      </c>
+      <c r="F8">
+        <v>1.6</v>
+      </c>
+      <c r="G8">
+        <f>B8/F8</f>
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="D9" t="s">
+        <v>300</v>
+      </c>
+      <c r="F9">
+        <v>2.7</v>
+      </c>
+      <c r="G9">
+        <f>B9/F9</f>
+        <v>0.17444444444444443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>300</v>
+      </c>
+      <c r="F10">
+        <v>2.7</v>
+      </c>
+      <c r="G10">
+        <f>B10/F10</f>
+        <v>0.17444444444444443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>300</v>
+      </c>
+      <c r="F11">
+        <v>1.6</v>
+      </c>
+      <c r="G11">
+        <f>B11/F11</f>
+        <v>0.29437499999999994</v>
+      </c>
+      <c r="H11" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5141,8 +5520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1CE3E2-B118-495B-9371-003A6BFBB1F7}">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="O213" sqref="O213"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66:F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7510,7 +7889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70AA0A0D-C8C4-4B95-9301-D0901FBE12F4}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>

--- a/VitalRates.xlsx
+++ b/VitalRates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jelly\Documents\ColoradoRiverInverts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA90181D-3FAF-43F0-A08C-85D0A40785F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5416E6C4-E881-416C-A68C-B59438385DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="6180" windowWidth="17280" windowHeight="9982" firstSheet="15" activeTab="17" xr2:uid="{5BBB9DFD-573C-4E7C-88D7-10047BA5B2E6}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="17279" windowHeight="9982" firstSheet="11" activeTab="11" xr2:uid="{5BBB9DFD-573C-4E7C-88D7-10047BA5B2E6}"/>
   </bookViews>
   <sheets>
     <sheet name="To Read" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <sheet name="NZMS Survival Rates" sheetId="14" r:id="rId15"/>
     <sheet name="NZMS Mortality Rates" sheetId="11" r:id="rId16"/>
     <sheet name="Hydropsyche Mortality Rates" sheetId="9" r:id="rId17"/>
-    <sheet name="Sheet4" sheetId="18" r:id="rId18"/>
+    <sheet name="Chiro Mortality Rates" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="350">
   <si>
     <t>Species</t>
   </si>
@@ -1082,12 +1082,45 @@
   <si>
     <t>(no mortality - increase)</t>
   </si>
+  <si>
+    <t>Bond &amp; Downes, 2003</t>
+  </si>
+  <si>
+    <t>Stevens, 1998</t>
+  </si>
+  <si>
+    <t>Sankarperumal &amp; Pandian,1991</t>
+  </si>
+  <si>
+    <t>Reyes-Maldonado et al 2021</t>
+  </si>
+  <si>
+    <t>Bankful</t>
+  </si>
+  <si>
+    <t>Discharge</t>
+  </si>
+  <si>
+    <t>Pre</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>Mort</t>
+  </si>
+  <si>
+    <t>Jackson &amp; Fisher, 1986</t>
+  </si>
+  <si>
+    <t>Stratment et al. 2014</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1127,6 +1160,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1145,19 +1185,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1668,7 +1717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7500D613-561D-4AEF-8987-2D25814E2080}">
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15:J20"/>
     </sheetView>
   </sheetViews>
@@ -3414,7 +3463,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3723,8 +3772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5671E9C7-3191-4841-844A-6745CB47FDD2}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3860,10 +3909,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C77117-34E9-45B5-AFFE-43A5629D5643}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3881,65 +3930,67 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>16.43762508</v>
+        <v>37</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.2</v>
       </c>
       <c r="C2" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.5</v>
       </c>
       <c r="C3" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B4">
-        <v>44.807415470000002</v>
+        <f>1-0.467</f>
+        <v>0.53299999999999992</v>
       </c>
       <c r="C4" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B5">
-        <v>0.30897791499999999</v>
+        <f>1-0.458</f>
+        <v>0.54200000000000004</v>
       </c>
       <c r="C5" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B6">
-        <v>69.146448509999999</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="C6" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>84.645904290000004</v>
+        <v>0.16437625080000001</v>
       </c>
       <c r="C7" t="s">
         <v>336</v>
@@ -3947,10 +3998,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>54.50651311</v>
+        <v>1E-4</v>
       </c>
       <c r="C8" t="s">
         <v>336</v>
@@ -3958,13 +4009,288 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>9.5137108949999991</v>
+        <v>0.4480741547</v>
       </c>
       <c r="C9" t="s">
         <v>336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.30897791499999999</v>
+      </c>
+      <c r="C10" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>0.69146448510000003</v>
+      </c>
+      <c r="C11" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0.84645904289999996</v>
+      </c>
+      <c r="C12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.54506513109999999</v>
+      </c>
+      <c r="C13" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>0.95137108950000004</v>
+      </c>
+      <c r="C14" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>37.5</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>35</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>32.5</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C17" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>30</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>27.5</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>25</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>22.5</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>17.5</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>15</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>12.5</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C25" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>35</v>
+      </c>
+      <c r="B27" s="7">
+        <v>3.2099999999999997E-2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>15</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="C28" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>20</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="C29" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>22</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0.753</v>
+      </c>
+      <c r="C30" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0.753</v>
+      </c>
+      <c r="C31" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32" s="7">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="C32" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="C33" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="7">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="C34" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -4112,7 +4438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4A60B5-2702-4A70-9CB2-3B17A88B6CEB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -4361,7 +4687,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4528,15 +4854,19 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826C251F-8D33-462C-AE02-50288781B133}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="16" max="16" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.19921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -4555,15 +4885,22 @@
       <c r="G1" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L1" s="8"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>40</v>
       </c>
       <c r="B2">
         <v>0.3</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>0.84099999999999997</v>
       </c>
       <c r="D2" t="s">
@@ -4573,18 +4910,25 @@
         <v>36.8119011</v>
       </c>
       <c r="G2">
-        <f>B2/F2</f>
+        <f t="shared" ref="G2:G11" si="0">B2/F2</f>
         <v>8.1495383567679967E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L2" s="8"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>40</v>
       </c>
       <c r="B3">
         <v>1.7</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>0.98099999999999998</v>
       </c>
       <c r="D3" t="s">
@@ -4594,18 +4938,25 @@
         <v>36.8119011</v>
       </c>
       <c r="G3">
-        <f>B3/F3</f>
+        <f t="shared" si="0"/>
         <v>4.6180717355018643E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L3" s="8"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>40</v>
       </c>
       <c r="B4">
         <v>8.5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>0.95599999999999996</v>
       </c>
       <c r="D4" t="s">
@@ -4615,18 +4966,25 @@
         <v>36.8119011</v>
       </c>
       <c r="G4">
-        <f>B4/F4</f>
+        <f t="shared" si="0"/>
         <v>0.23090358677509323</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L4" s="8"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>40</v>
       </c>
       <c r="B5">
         <v>26</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>0.90100000000000002</v>
       </c>
       <c r="D5" t="s">
@@ -4636,18 +4994,25 @@
         <v>36.8119011</v>
       </c>
       <c r="G5">
-        <f>B5/F5</f>
+        <f t="shared" si="0"/>
         <v>0.70629332425322633</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L5" s="8"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>40</v>
       </c>
       <c r="B6">
         <v>0.54400000000000004</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>0.747</v>
       </c>
       <c r="D6" t="s">
@@ -4657,18 +5022,25 @@
         <v>2.7</v>
       </c>
       <c r="G6">
-        <f>B6/F6</f>
+        <f t="shared" si="0"/>
         <v>0.20148148148148148</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L6" s="8"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>40</v>
       </c>
       <c r="B7">
         <v>0.54400000000000004</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
@@ -4678,21 +5050,28 @@
         <v>2.7</v>
       </c>
       <c r="G7">
-        <f>B7/F7</f>
+        <f t="shared" si="0"/>
         <v>0.20148148148148148</v>
       </c>
       <c r="H7" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L7" s="8"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>40</v>
       </c>
       <c r="B8">
         <v>0.54400000000000004</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>0.49</v>
       </c>
       <c r="D8" t="s">
@@ -4702,18 +5081,25 @@
         <v>1.6</v>
       </c>
       <c r="G8">
-        <f>B8/F8</f>
+        <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L8" s="8"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>40</v>
       </c>
       <c r="B9">
         <v>0.47099999999999997</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>0.89300000000000002</v>
       </c>
       <c r="D9" t="s">
@@ -4723,18 +5109,19 @@
         <v>2.7</v>
       </c>
       <c r="G9">
-        <f>B9/F9</f>
+        <f t="shared" si="0"/>
         <v>0.17444444444444443</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>40</v>
       </c>
       <c r="B10">
         <v>0.47099999999999997</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>0.49</v>
       </c>
       <c r="D10" t="s">
@@ -4744,18 +5131,18 @@
         <v>2.7</v>
       </c>
       <c r="G10">
-        <f>B10/F10</f>
+        <f t="shared" si="0"/>
         <v>0.17444444444444443</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>40</v>
       </c>
       <c r="B11">
         <v>0.47099999999999997</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
@@ -4765,14 +5152,284 @@
         <v>1.6</v>
       </c>
       <c r="G11">
-        <f>B11/F11</f>
+        <f t="shared" si="0"/>
         <v>0.29437499999999994</v>
       </c>
       <c r="H11" t="s">
         <v>338</v>
       </c>
     </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>6.4399999999999995E-3</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>339</v>
+      </c>
+      <c r="F12">
+        <v>3.0100000000000002E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.21395348837209299</v>
+      </c>
+      <c r="H12" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>1.9319999999999997E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.86</v>
+      </c>
+      <c r="D13" t="s">
+        <v>339</v>
+      </c>
+      <c r="F13">
+        <v>3.0100000000000002E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.64186046511627892</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>4.409999999999999E-3</v>
+      </c>
+      <c r="C14">
+        <v>0.18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>339</v>
+      </c>
+      <c r="F14">
+        <v>3.0100000000000002E-2</v>
+      </c>
+      <c r="G14">
+        <v>0.14651162790697672</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>3.0100000000000002E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.69</v>
+      </c>
+      <c r="D15" t="s">
+        <v>339</v>
+      </c>
+      <c r="F15">
+        <v>3.0100000000000002E-2</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>5.6699999999999997E-3</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>339</v>
+      </c>
+      <c r="F16">
+        <v>3.0100000000000002E-2</v>
+      </c>
+      <c r="G16">
+        <v>0.1883720930232558</v>
+      </c>
+      <c r="H16" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>2.205E-2</v>
+      </c>
+      <c r="C17">
+        <v>0.77</v>
+      </c>
+      <c r="D17" t="s">
+        <v>339</v>
+      </c>
+      <c r="F17">
+        <v>3.0100000000000002E-2</v>
+      </c>
+      <c r="G17">
+        <v>0.73255813953488369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>5.8800000000000007E-3</v>
+      </c>
+      <c r="C18">
+        <v>0.45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>339</v>
+      </c>
+      <c r="F18">
+        <v>3.0100000000000002E-2</v>
+      </c>
+      <c r="G18">
+        <v>0.19534883720930235</v>
+      </c>
+      <c r="K18" t="s">
+        <v>343</v>
+      </c>
+      <c r="L18" t="s">
+        <v>344</v>
+      </c>
+      <c r="M18" t="s">
+        <v>345</v>
+      </c>
+      <c r="N18" t="s">
+        <v>346</v>
+      </c>
+      <c r="O18" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <v>2.2994999999999998E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.94</v>
+      </c>
+      <c r="D19" t="s">
+        <v>339</v>
+      </c>
+      <c r="F19">
+        <v>3.0100000000000002E-2</v>
+      </c>
+      <c r="G19">
+        <v>0.76395348837209287</v>
+      </c>
+      <c r="M19">
+        <v>23.3</v>
+      </c>
+      <c r="N19">
+        <v>3.18</v>
+      </c>
+      <c r="O19">
+        <f>1-(N19/M19)</f>
+        <v>0.86351931330472098</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="C20">
+        <v>0.86351931330472098</v>
+      </c>
+      <c r="D20" t="s">
+        <v>348</v>
+      </c>
+      <c r="F20">
+        <v>0.15</v>
+      </c>
+      <c r="G20">
+        <f>B20/F20</f>
+        <v>3.4133333333333336</v>
+      </c>
+      <c r="M20">
+        <v>68.5</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f t="shared" ref="O20:O21" si="1">1-(N20/M20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <v>82.8</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>348</v>
+      </c>
+      <c r="F21">
+        <v>0.15</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21:G22" si="2">B21/F21</f>
+        <v>552</v>
+      </c>
+      <c r="M21">
+        <v>81.8</v>
+      </c>
+      <c r="N21">
+        <v>1.52</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>0.98141809290953541</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <v>3.31</v>
+      </c>
+      <c r="C22">
+        <v>0.98141809290953541</v>
+      </c>
+      <c r="D22" t="s">
+        <v>348</v>
+      </c>
+      <c r="F22">
+        <v>0.15</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>22.066666666666666</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="L5:L8"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7765,7 +8422,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/VitalRates.xlsx
+++ b/VitalRates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jelly\Documents\ColoradoRiverInverts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5416E6C4-E881-416C-A68C-B59438385DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B4F52E-9148-4BB4-A7DD-E5620197BD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="17279" windowHeight="9982" firstSheet="11" activeTab="11" xr2:uid="{5BBB9DFD-573C-4E7C-88D7-10047BA5B2E6}"/>
+    <workbookView xWindow="1770" yWindow="2453" windowWidth="17280" windowHeight="9982" firstSheet="16" activeTab="18" xr2:uid="{5BBB9DFD-573C-4E7C-88D7-10047BA5B2E6}"/>
   </bookViews>
   <sheets>
     <sheet name="To Read" sheetId="4" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="NZMS Mortality Rates" sheetId="11" r:id="rId16"/>
     <sheet name="Hydropsyche Mortality Rates" sheetId="9" r:id="rId17"/>
     <sheet name="Chiro Mortality Rates" sheetId="18" r:id="rId18"/>
+    <sheet name="Sheet3" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="353">
   <si>
     <t>Species</t>
   </si>
@@ -1114,6 +1115,15 @@
   </si>
   <si>
     <t>Stratment et al. 2014</t>
+  </si>
+  <si>
+    <t>NZMS Growth Rate (mm/mo)</t>
+  </si>
+  <si>
+    <t>Citations</t>
+  </si>
+  <si>
+    <t>Dybdahl &amp; Kane, 2005</t>
   </si>
 </sst>
 </file>
@@ -3772,7 +3782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5671E9C7-3191-4841-844A-6745CB47FDD2}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -5434,6 +5444,131 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D5572D-33FE-4713-A31D-A4A12D21A4AC}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="C2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="C3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="C4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="C6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="C7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>1.28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>1.29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>1.74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFC38AF-C57B-434A-A547-824BE01D5EB3}">
   <dimension ref="A1:L12"/>

--- a/VitalRates.xlsx
+++ b/VitalRates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jelly\Documents\ColoradoRiverInverts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B4F52E-9148-4BB4-A7DD-E5620197BD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300EB7EC-BCE0-437C-8994-C2D7112B22A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1770" yWindow="2453" windowWidth="17280" windowHeight="9982" firstSheet="16" activeTab="18" xr2:uid="{5BBB9DFD-573C-4E7C-88D7-10047BA5B2E6}"/>
   </bookViews>
@@ -5449,7 +5449,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/VitalRates.xlsx
+++ b/VitalRates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jelly\Documents\ColoradoRiverInverts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300EB7EC-BCE0-437C-8994-C2D7112B22A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E51E0F-2175-4E2F-81D1-3DE5E39DE3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="2453" windowWidth="17280" windowHeight="9982" firstSheet="16" activeTab="18" xr2:uid="{5BBB9DFD-573C-4E7C-88D7-10047BA5B2E6}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="17280" windowHeight="10522" firstSheet="20" activeTab="21" xr2:uid="{5BBB9DFD-573C-4E7C-88D7-10047BA5B2E6}"/>
   </bookViews>
   <sheets>
     <sheet name="To Read" sheetId="4" r:id="rId1"/>
@@ -20,18 +20,22 @@
     <sheet name="Baetid Development" sheetId="13" r:id="rId5"/>
     <sheet name="Recolonization Rates" sheetId="5" r:id="rId6"/>
     <sheet name="Sheet2" sheetId="8" r:id="rId7"/>
-    <sheet name="Hydropsyche Development Rates" sheetId="15" r:id="rId8"/>
-    <sheet name="Fecundity" sheetId="7" r:id="rId9"/>
-    <sheet name="Mortality Rates" sheetId="6" r:id="rId10"/>
-    <sheet name="Baetid Mortality Rates" sheetId="10" r:id="rId11"/>
-    <sheet name="Hydropsyche Survival Rates " sheetId="16" r:id="rId12"/>
-    <sheet name="Chiro Survival" sheetId="17" r:id="rId13"/>
-    <sheet name="Baetid Survival Rates" sheetId="12" r:id="rId14"/>
-    <sheet name="NZMS Survival Rates" sheetId="14" r:id="rId15"/>
-    <sheet name="NZMS Mortality Rates" sheetId="11" r:id="rId16"/>
-    <sheet name="Hydropsyche Mortality Rates" sheetId="9" r:id="rId17"/>
-    <sheet name="Chiro Mortality Rates" sheetId="18" r:id="rId18"/>
-    <sheet name="Sheet3" sheetId="19" r:id="rId19"/>
+    <sheet name="Gammarus Length " sheetId="21" r:id="rId8"/>
+    <sheet name="Hydropsyche Development Rates" sheetId="15" r:id="rId9"/>
+    <sheet name="Fecundity" sheetId="7" r:id="rId10"/>
+    <sheet name="Mortality Rates" sheetId="6" r:id="rId11"/>
+    <sheet name="Baetid Mortality Rates" sheetId="10" r:id="rId12"/>
+    <sheet name="Hydropsyche Survival Rates " sheetId="16" r:id="rId13"/>
+    <sheet name="Sheet5" sheetId="23" r:id="rId14"/>
+    <sheet name="Chiro Survival" sheetId="17" r:id="rId15"/>
+    <sheet name="Baetid Survival Rates" sheetId="12" r:id="rId16"/>
+    <sheet name="NZMS Survival Rates" sheetId="14" r:id="rId17"/>
+    <sheet name="NZMS Mortality Rates" sheetId="11" r:id="rId18"/>
+    <sheet name="Hydropsyche Mortality Rates" sheetId="9" r:id="rId19"/>
+    <sheet name="Chiro Mortality Rates" sheetId="18" r:id="rId20"/>
+    <sheet name="Sheet3" sheetId="19" r:id="rId21"/>
+    <sheet name="Gammarus Survival Rates" sheetId="20" r:id="rId22"/>
+    <sheet name="Gammarus Mortality Rates" sheetId="22" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="367">
   <si>
     <t>Species</t>
   </si>
@@ -1081,9 +1085,6 @@
     <t>Max/Bankful</t>
   </si>
   <si>
-    <t>(no mortality - increase)</t>
-  </si>
-  <si>
     <t>Bond &amp; Downes, 2003</t>
   </si>
   <si>
@@ -1096,21 +1097,6 @@
     <t>Reyes-Maldonado et al 2021</t>
   </si>
   <si>
-    <t>Bankful</t>
-  </si>
-  <si>
-    <t>Discharge</t>
-  </si>
-  <si>
-    <t>Pre</t>
-  </si>
-  <si>
-    <t>Post</t>
-  </si>
-  <si>
-    <t>Mort</t>
-  </si>
-  <si>
     <t>Jackson &amp; Fisher, 1986</t>
   </si>
   <si>
@@ -1124,6 +1110,66 @@
   </si>
   <si>
     <t>Dybdahl &amp; Kane, 2005</t>
+  </si>
+  <si>
+    <t>Jakob et al., 2016</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Hynes, 1995</t>
+  </si>
+  <si>
+    <t>Hynes, 1972</t>
+  </si>
+  <si>
+    <t>Stage 1</t>
+  </si>
+  <si>
+    <t>Stage 2</t>
+  </si>
+  <si>
+    <t>Stage 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">less than 7 </t>
+  </si>
+  <si>
+    <t>7 to 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 + </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vereschagina </t>
+  </si>
+  <si>
+    <t>Before</t>
+  </si>
+  <si>
+    <t>After</t>
+  </si>
+  <si>
+    <t>Robinson 2003</t>
+  </si>
+  <si>
+    <t>Survival Rates</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>J2</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1213,6 +1259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1724,6 +1771,197 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70AA0A0D-C8C4-4B95-9301-D0901FBE12F4}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6">
+        <v>1019</v>
+      </c>
+      <c r="C6">
+        <v>11190</v>
+      </c>
+      <c r="D6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8">
+        <v>1500</v>
+      </c>
+      <c r="C8">
+        <v>12000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G8">
+        <f>AVERAGE(B8:B13)</f>
+        <v>630.16666666666663</v>
+      </c>
+      <c r="H8">
+        <f>AVERAGE(C8:C13)</f>
+        <v>2720.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9">
+        <v>1400</v>
+      </c>
+      <c r="C9">
+        <v>3300</v>
+      </c>
+      <c r="D9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10">
+        <v>500</v>
+      </c>
+      <c r="C10">
+        <v>500</v>
+      </c>
+      <c r="D10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12">
+        <v>300</v>
+      </c>
+      <c r="C12">
+        <v>400</v>
+      </c>
+      <c r="D12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B13">
+        <v>61</v>
+      </c>
+      <c r="C13">
+        <v>99</v>
+      </c>
+      <c r="D13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15">
+        <v>200</v>
+      </c>
+      <c r="C15">
+        <v>500</v>
+      </c>
+      <c r="F15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7500D613-561D-4AEF-8987-2D25814E2080}">
   <dimension ref="A1:N73"/>
   <sheetViews>
@@ -3468,12 +3706,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A865092E-A2A6-40AC-8BF6-BDD754DDC55D}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3778,12 +4016,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5671E9C7-3191-4841-844A-6745CB47FDD2}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3917,12 +4155,263 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46E70A4-436C-4524-94E1-22A9A359BC5A}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>0.99</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.96</v>
+      </c>
+      <c r="D3">
+        <v>0.84</v>
+      </c>
+      <c r="E3">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0.81</v>
+      </c>
+      <c r="C4">
+        <v>0.66</v>
+      </c>
+      <c r="D4">
+        <v>0.6</v>
+      </c>
+      <c r="E4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="B5">
+        <v>0.64</v>
+      </c>
+      <c r="C5">
+        <v>0.65</v>
+      </c>
+      <c r="D5">
+        <v>0.62</v>
+      </c>
+      <c r="E5">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>0.46</v>
+      </c>
+      <c r="B6">
+        <v>0.65</v>
+      </c>
+      <c r="C6">
+        <v>0.7</v>
+      </c>
+      <c r="D6">
+        <v>0.61</v>
+      </c>
+      <c r="E6">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>0.63</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0.88</v>
+      </c>
+      <c r="E7">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>0.59</v>
+      </c>
+      <c r="B8">
+        <v>0.92</v>
+      </c>
+      <c r="C8">
+        <v>0.97</v>
+      </c>
+      <c r="D8">
+        <v>0.75</v>
+      </c>
+      <c r="E8">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>0.82</v>
+      </c>
+      <c r="B9">
+        <v>0.96</v>
+      </c>
+      <c r="C9">
+        <v>0.92</v>
+      </c>
+      <c r="D9">
+        <v>0.72</v>
+      </c>
+      <c r="E9">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>0.77</v>
+      </c>
+      <c r="B10">
+        <v>0.78</v>
+      </c>
+      <c r="C10">
+        <v>0.72</v>
+      </c>
+      <c r="D10">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E10">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>0.82</v>
+      </c>
+      <c r="B11">
+        <v>0.95</v>
+      </c>
+      <c r="C11">
+        <v>0.91</v>
+      </c>
+      <c r="D11">
+        <v>0.72</v>
+      </c>
+      <c r="E11">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>0.98</v>
+      </c>
+      <c r="B12">
+        <v>0.81</v>
+      </c>
+      <c r="C12">
+        <v>0.63</v>
+      </c>
+      <c r="D12">
+        <v>0.45</v>
+      </c>
+      <c r="E12">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0.93</v>
+      </c>
+      <c r="C13">
+        <v>0.77</v>
+      </c>
+      <c r="D13">
+        <v>0.53</v>
+      </c>
+      <c r="E13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0.73</v>
+      </c>
+      <c r="C14">
+        <v>0.52</v>
+      </c>
+      <c r="D14">
+        <v>0.38</v>
+      </c>
+      <c r="E14">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <f>AVERAGEA(A3:B14)</f>
+        <v>0.82583333333333331</v>
+      </c>
+      <c r="C16">
+        <f>AVERAGEA(C3:E14)</f>
+        <v>0.60805555555555557</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C77117-34E9-45B5-AFFE-43A5629D5643}">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3946,7 +4435,7 @@
         <v>0.2</v>
       </c>
       <c r="C2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -3957,7 +4446,7 @@
         <v>0.5</v>
       </c>
       <c r="C3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -3969,7 +4458,7 @@
         <v>0.53299999999999992</v>
       </c>
       <c r="C4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -3981,7 +4470,7 @@
         <v>0.54200000000000004</v>
       </c>
       <c r="C5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -3992,7 +4481,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -4091,7 +4580,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
@@ -4102,7 +4591,7 @@
         <v>0.42</v>
       </c>
       <c r="C16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -4113,7 +4602,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="C17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -4124,7 +4613,7 @@
         <v>0.37</v>
       </c>
       <c r="C18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
@@ -4135,7 +4624,7 @@
         <v>0.6</v>
       </c>
       <c r="C19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
@@ -4146,7 +4635,7 @@
         <v>0.54</v>
       </c>
       <c r="C20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
@@ -4157,7 +4646,7 @@
         <v>0.25</v>
       </c>
       <c r="C21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -4168,7 +4657,7 @@
         <v>0.6</v>
       </c>
       <c r="C22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -4179,7 +4668,7 @@
         <v>0.25</v>
       </c>
       <c r="C23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -4190,7 +4679,7 @@
         <v>0.6</v>
       </c>
       <c r="C24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
@@ -4201,7 +4690,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="C25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
@@ -4212,7 +4701,7 @@
         <v>0.4</v>
       </c>
       <c r="C26" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
@@ -4223,7 +4712,7 @@
         <v>3.2099999999999997E-2</v>
       </c>
       <c r="C27" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
@@ -4234,7 +4723,7 @@
         <v>0.31900000000000001</v>
       </c>
       <c r="C28" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
@@ -4245,7 +4734,7 @@
         <v>0.77600000000000002</v>
       </c>
       <c r="C29" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
@@ -4256,7 +4745,7 @@
         <v>0.753</v>
       </c>
       <c r="C30" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
@@ -4267,7 +4756,7 @@
         <v>0.753</v>
       </c>
       <c r="C31" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
@@ -4278,7 +4767,7 @@
         <v>0.82399999999999995</v>
       </c>
       <c r="C32" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
@@ -4289,7 +4778,7 @@
         <v>0.78</v>
       </c>
       <c r="C33" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
@@ -4300,7 +4789,7 @@
         <v>0.47899999999999998</v>
       </c>
       <c r="C34" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -4308,7 +4797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648851F1-1B76-483B-BD38-93D8FC0F4DDF}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -4444,12 +4933,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4A60B5-2702-4A70-9CB2-3B17A88B6CEB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4525,7 +5014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8667F1D1-AF13-44F8-9E56-B9FD16EB0387}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -4692,12 +5181,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA852ABF-0DF7-4B9A-84AF-ADD0D07630EA}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4859,713 +5348,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826C251F-8D33-462C-AE02-50288781B133}">
-  <dimension ref="A1:R22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="16" max="16" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.19921875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G1" t="s">
-        <v>337</v>
-      </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2">
-        <v>0.3</v>
-      </c>
-      <c r="C2">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="D2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2">
-        <v>36.8119011</v>
-      </c>
-      <c r="G2">
-        <f t="shared" ref="G2:G11" si="0">B2/F2</f>
-        <v>8.1495383567679967E-3</v>
-      </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3">
-        <v>1.7</v>
-      </c>
-      <c r="C3">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="D3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F3">
-        <v>36.8119011</v>
-      </c>
-      <c r="G3">
-        <f t="shared" si="0"/>
-        <v>4.6180717355018643E-2</v>
-      </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4">
-        <v>8.5</v>
-      </c>
-      <c r="C4">
-        <v>0.95599999999999996</v>
-      </c>
-      <c r="D4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F4">
-        <v>36.8119011</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>0.23090358677509323</v>
-      </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5">
-        <v>26</v>
-      </c>
-      <c r="C5">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="D5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5">
-        <v>36.8119011</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>0.70629332425322633</v>
-      </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="C6">
-        <v>0.747</v>
-      </c>
-      <c r="D6" t="s">
-        <v>300</v>
-      </c>
-      <c r="F6">
-        <v>2.7</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>0.20148148148148148</v>
-      </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>300</v>
-      </c>
-      <c r="F7">
-        <v>2.7</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>0.20148148148148148</v>
-      </c>
-      <c r="H7" t="s">
-        <v>338</v>
-      </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="C8">
-        <v>0.49</v>
-      </c>
-      <c r="D8" t="s">
-        <v>300</v>
-      </c>
-      <c r="F8">
-        <v>1.6</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>0.34</v>
-      </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="C9">
-        <v>0.89300000000000002</v>
-      </c>
-      <c r="D9" t="s">
-        <v>300</v>
-      </c>
-      <c r="F9">
-        <v>2.7</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>0.17444444444444443</v>
-      </c>
-      <c r="P9" s="6"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="C10">
-        <v>0.49</v>
-      </c>
-      <c r="D10" t="s">
-        <v>300</v>
-      </c>
-      <c r="F10">
-        <v>2.7</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>0.17444444444444443</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>300</v>
-      </c>
-      <c r="F11">
-        <v>1.6</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>0.29437499999999994</v>
-      </c>
-      <c r="H11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12">
-        <v>6.4399999999999995E-3</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>339</v>
-      </c>
-      <c r="F12">
-        <v>3.0100000000000002E-2</v>
-      </c>
-      <c r="G12">
-        <v>0.21395348837209299</v>
-      </c>
-      <c r="H12" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13">
-        <v>1.9319999999999997E-2</v>
-      </c>
-      <c r="C13">
-        <v>0.86</v>
-      </c>
-      <c r="D13" t="s">
-        <v>339</v>
-      </c>
-      <c r="F13">
-        <v>3.0100000000000002E-2</v>
-      </c>
-      <c r="G13">
-        <v>0.64186046511627892</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14">
-        <v>4.409999999999999E-3</v>
-      </c>
-      <c r="C14">
-        <v>0.18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>339</v>
-      </c>
-      <c r="F14">
-        <v>3.0100000000000002E-2</v>
-      </c>
-      <c r="G14">
-        <v>0.14651162790697672</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15">
-        <v>3.0100000000000002E-2</v>
-      </c>
-      <c r="C15">
-        <v>0.69</v>
-      </c>
-      <c r="D15" t="s">
-        <v>339</v>
-      </c>
-      <c r="F15">
-        <v>3.0100000000000002E-2</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16">
-        <v>5.6699999999999997E-3</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>339</v>
-      </c>
-      <c r="F16">
-        <v>3.0100000000000002E-2</v>
-      </c>
-      <c r="G16">
-        <v>0.1883720930232558</v>
-      </c>
-      <c r="H16" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17">
-        <v>2.205E-2</v>
-      </c>
-      <c r="C17">
-        <v>0.77</v>
-      </c>
-      <c r="D17" t="s">
-        <v>339</v>
-      </c>
-      <c r="F17">
-        <v>3.0100000000000002E-2</v>
-      </c>
-      <c r="G17">
-        <v>0.73255813953488369</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18">
-        <v>5.8800000000000007E-3</v>
-      </c>
-      <c r="C18">
-        <v>0.45</v>
-      </c>
-      <c r="D18" t="s">
-        <v>339</v>
-      </c>
-      <c r="F18">
-        <v>3.0100000000000002E-2</v>
-      </c>
-      <c r="G18">
-        <v>0.19534883720930235</v>
-      </c>
-      <c r="K18" t="s">
-        <v>343</v>
-      </c>
-      <c r="L18" t="s">
-        <v>344</v>
-      </c>
-      <c r="M18" t="s">
-        <v>345</v>
-      </c>
-      <c r="N18" t="s">
-        <v>346</v>
-      </c>
-      <c r="O18" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19">
-        <v>2.2994999999999998E-2</v>
-      </c>
-      <c r="C19">
-        <v>0.94</v>
-      </c>
-      <c r="D19" t="s">
-        <v>339</v>
-      </c>
-      <c r="F19">
-        <v>3.0100000000000002E-2</v>
-      </c>
-      <c r="G19">
-        <v>0.76395348837209287</v>
-      </c>
-      <c r="M19">
-        <v>23.3</v>
-      </c>
-      <c r="N19">
-        <v>3.18</v>
-      </c>
-      <c r="O19">
-        <f>1-(N19/M19)</f>
-        <v>0.86351931330472098</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B20">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="C20">
-        <v>0.86351931330472098</v>
-      </c>
-      <c r="D20" t="s">
-        <v>348</v>
-      </c>
-      <c r="F20">
-        <v>0.15</v>
-      </c>
-      <c r="G20">
-        <f>B20/F20</f>
-        <v>3.4133333333333336</v>
-      </c>
-      <c r="M20">
-        <v>68.5</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <f t="shared" ref="O20:O21" si="1">1-(N20/M20)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B21">
-        <v>82.8</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>348</v>
-      </c>
-      <c r="F21">
-        <v>0.15</v>
-      </c>
-      <c r="G21">
-        <f t="shared" ref="G21:G22" si="2">B21/F21</f>
-        <v>552</v>
-      </c>
-      <c r="M21">
-        <v>81.8</v>
-      </c>
-      <c r="N21">
-        <v>1.52</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="1"/>
-        <v>0.98141809290953541</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B22">
-        <v>3.31</v>
-      </c>
-      <c r="C22">
-        <v>0.98141809290953541</v>
-      </c>
-      <c r="D22" t="s">
-        <v>348</v>
-      </c>
-      <c r="F22">
-        <v>0.15</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="2"/>
-        <v>22.066666666666666</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="L5:L8"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D5572D-33FE-4713-A31D-A4A12D21A4AC}">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="C2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="C3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="C4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>18</v>
-      </c>
-      <c r="B5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="C6" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="C7" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>24</v>
-      </c>
-      <c r="B8">
-        <v>1.28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>24</v>
-      </c>
-      <c r="B9">
-        <v>1.29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>24</v>
-      </c>
-      <c r="B10">
-        <v>1.74</v>
-      </c>
-      <c r="C10" t="s">
-        <v>352</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5685,6 +5467,1375 @@
       </c>
       <c r="B12" t="s">
         <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826C251F-8D33-462C-AE02-50288781B133}">
+  <dimension ref="A1:R22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="16" max="16" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G1" t="s">
+        <v>337</v>
+      </c>
+      <c r="L1" s="8"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B2">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="C2">
+        <v>0.86351931330472098</v>
+      </c>
+      <c r="D2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F2">
+        <v>0.15</v>
+      </c>
+      <c r="G2">
+        <f>B2/F2</f>
+        <v>3.4133333333333336</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B3">
+        <v>82.8</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F3">
+        <v>0.15</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G4" si="0">B3/F3</f>
+        <v>552</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>3.31</v>
+      </c>
+      <c r="C4">
+        <v>0.98141809290953541</v>
+      </c>
+      <c r="D4" t="s">
+        <v>342</v>
+      </c>
+      <c r="F4">
+        <v>0.15</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>22.066666666666666</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="C5">
+        <v>0.747</v>
+      </c>
+      <c r="D5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F5">
+        <v>2.7</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G10" si="1">B5/F5</f>
+        <v>0.20148148148148148</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>300</v>
+      </c>
+      <c r="F6">
+        <v>2.7</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.20148148148148148</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="C7">
+        <v>0.49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F7">
+        <v>1.6</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.34</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="C8">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="D8" t="s">
+        <v>300</v>
+      </c>
+      <c r="F8">
+        <v>2.7</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.17444444444444443</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="C9">
+        <v>0.49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>300</v>
+      </c>
+      <c r="F9">
+        <v>2.7</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.17444444444444443</v>
+      </c>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>300</v>
+      </c>
+      <c r="F10">
+        <v>1.6</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.29437499999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>6.4399999999999995E-3</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>338</v>
+      </c>
+      <c r="F11">
+        <v>3.0100000000000002E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.21395348837209299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>1.9319999999999997E-2</v>
+      </c>
+      <c r="C12">
+        <v>0.86</v>
+      </c>
+      <c r="D12" t="s">
+        <v>338</v>
+      </c>
+      <c r="F12">
+        <v>3.0100000000000002E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.64186046511627892</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>4.409999999999999E-3</v>
+      </c>
+      <c r="C13">
+        <v>0.18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>338</v>
+      </c>
+      <c r="F13">
+        <v>3.0100000000000002E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.14651162790697672</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>3.0100000000000002E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.69</v>
+      </c>
+      <c r="D14" t="s">
+        <v>338</v>
+      </c>
+      <c r="F14">
+        <v>3.0100000000000002E-2</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>5.6699999999999997E-3</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>338</v>
+      </c>
+      <c r="F15">
+        <v>3.0100000000000002E-2</v>
+      </c>
+      <c r="G15">
+        <v>0.1883720930232558</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>2.205E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.77</v>
+      </c>
+      <c r="D16" t="s">
+        <v>338</v>
+      </c>
+      <c r="F16">
+        <v>3.0100000000000002E-2</v>
+      </c>
+      <c r="G16">
+        <v>0.73255813953488369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>5.8800000000000007E-3</v>
+      </c>
+      <c r="C17">
+        <v>0.45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>338</v>
+      </c>
+      <c r="F17">
+        <v>3.0100000000000002E-2</v>
+      </c>
+      <c r="G17">
+        <v>0.19534883720930235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>2.2994999999999998E-2</v>
+      </c>
+      <c r="C18">
+        <v>0.94</v>
+      </c>
+      <c r="D18" t="s">
+        <v>338</v>
+      </c>
+      <c r="F18">
+        <v>3.0100000000000002E-2</v>
+      </c>
+      <c r="G18">
+        <v>0.76395348837209287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <v>0.3</v>
+      </c>
+      <c r="C19">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="D19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19">
+        <v>36.8119011</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ref="G19:G22" si="2">B19/F19</f>
+        <v>8.1495383567679967E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>1.7</v>
+      </c>
+      <c r="C20">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="D20" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20">
+        <v>36.8119011</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>4.6180717355018643E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>8.5</v>
+      </c>
+      <c r="C21">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="D21" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21">
+        <v>36.8119011</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>0.23090358677509323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="D22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22">
+        <v>36.8119011</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>0.70629332425322633</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="L5:L8"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D5572D-33FE-4713-A31D-A4A12D21A4AC}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="C2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="C3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="C4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="C6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="C7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>1.28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>1.29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>1.74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>346</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BAB039-2530-4577-9F3B-6EE9D5C56715}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>5.8771929824561404</v>
+      </c>
+      <c r="B2">
+        <v>10.021321961620499</v>
+      </c>
+      <c r="C2">
+        <f>(100-B2)/100</f>
+        <v>0.899786780383795</v>
+      </c>
+      <c r="D2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>8.9473684210526301</v>
+      </c>
+      <c r="B3">
+        <v>10.021321961620499</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C22" si="0">(100-B3)/100</f>
+        <v>0.899786780383795</v>
+      </c>
+      <c r="D3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>12.280701754386</v>
+      </c>
+      <c r="B4">
+        <v>10.234541577825199</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.89765458422174804</v>
+      </c>
+      <c r="D4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>15.087719298245601</v>
+      </c>
+      <c r="B5">
+        <v>10.021321961620499</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.899786780383795</v>
+      </c>
+      <c r="D5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>17.6315789473684</v>
+      </c>
+      <c r="B6">
+        <v>10.021321961620499</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.899786780383795</v>
+      </c>
+      <c r="D6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>19.7368421052632</v>
+      </c>
+      <c r="B7">
+        <v>10.234541577825199</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.89765458422174804</v>
+      </c>
+      <c r="D7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>21.9298245614035</v>
+      </c>
+      <c r="B8">
+        <v>10.021321961620499</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.899786780383795</v>
+      </c>
+      <c r="D8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>23.859649122806999</v>
+      </c>
+      <c r="B9">
+        <v>10.8742004264392</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.89125799573560793</v>
+      </c>
+      <c r="D9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>25.526315789473699</v>
+      </c>
+      <c r="B10">
+        <v>13.8592750533049</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.86140724946695102</v>
+      </c>
+      <c r="D10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>26.315789473684202</v>
+      </c>
+      <c r="B11">
+        <v>18.976545842217501</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.81023454157782493</v>
+      </c>
+      <c r="D11" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>26.9298245614035</v>
+      </c>
+      <c r="B12">
+        <v>24.946695095948801</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0.75053304904051199</v>
+      </c>
+      <c r="D12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>27.3684210526316</v>
+      </c>
+      <c r="B13">
+        <v>33.262260127931803</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0.66737739872068202</v>
+      </c>
+      <c r="D13" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>28.0701754385965</v>
+      </c>
+      <c r="B14">
+        <v>49.893390191897701</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0.50106609808102298</v>
+      </c>
+      <c r="D14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>28.684210526315798</v>
+      </c>
+      <c r="B15">
+        <v>68.230277185501095</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0.31769722814498907</v>
+      </c>
+      <c r="D15" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>28.947368421052602</v>
+      </c>
+      <c r="B16">
+        <v>80.597014925373102</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0.19402985074626897</v>
+      </c>
+      <c r="D16" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>29.473684210526301</v>
+      </c>
+      <c r="B17">
+        <v>94.456289978678001</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>5.5437100213219993E-2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>30.2631578947368</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <v>1E-4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>31.6666666666667</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>1E-4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>1.5</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <v>1E-4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>1E-4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>100</v>
+      </c>
+      <c r="C22">
+        <v>1E-4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>357</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA253E9-1F1C-44C1-9CF5-B4F18C2F916B}">
+  <dimension ref="A1:R24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>9360</v>
+      </c>
+      <c r="C2">
+        <v>3220</v>
+      </c>
+      <c r="D2">
+        <f>(B2-C2)/B2</f>
+        <v>0.65598290598290598</v>
+      </c>
+      <c r="E2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <f>A2/F2</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>841</v>
+      </c>
+      <c r="C3">
+        <v>308</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D14" si="0">(B3-C3)/B3</f>
+        <v>0.63376932223543403</v>
+      </c>
+      <c r="E3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G10" si="1">A3/F3</f>
+        <v>2.0833333333333335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>3080</v>
+      </c>
+      <c r="C4">
+        <v>1640</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.46753246753246752</v>
+      </c>
+      <c r="E4" t="s">
+        <v>360</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>5750</v>
+      </c>
+      <c r="C5">
+        <v>1070</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.81391304347826088</v>
+      </c>
+      <c r="E5" t="s">
+        <v>360</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>11.5</v>
+      </c>
+      <c r="B6">
+        <v>2020</v>
+      </c>
+      <c r="C6">
+        <v>247</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.87772277227722773</v>
+      </c>
+      <c r="E6" t="s">
+        <v>360</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>2700</v>
+      </c>
+      <c r="C7">
+        <v>128</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.95259259259259255</v>
+      </c>
+      <c r="E7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>12.1</v>
+      </c>
+      <c r="B8">
+        <v>566</v>
+      </c>
+      <c r="C8">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.85671378091872785</v>
+      </c>
+      <c r="E8" t="s">
+        <v>360</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>1.0083333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>3880</v>
+      </c>
+      <c r="C9">
+        <v>68</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.98247422680412366</v>
+      </c>
+      <c r="E9" t="s">
+        <v>360</v>
+      </c>
+      <c r="F9">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>2470</v>
+      </c>
+      <c r="C10">
+        <v>1650</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.33198380566801622</v>
+      </c>
+      <c r="E10" t="s">
+        <v>360</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="21" spans="13:18" x14ac:dyDescent="0.45">
+      <c r="M21">
+        <v>25</v>
+      </c>
+      <c r="N21">
+        <v>2119</v>
+      </c>
+      <c r="O21">
+        <v>58.7</v>
+      </c>
+      <c r="P21">
+        <f>(N21-O21)/N21</f>
+        <v>0.97229825389334601</v>
+      </c>
+      <c r="R21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="13:18" x14ac:dyDescent="0.45">
+      <c r="M22">
+        <v>25</v>
+      </c>
+      <c r="N22">
+        <v>110</v>
+      </c>
+      <c r="O22">
+        <v>44</v>
+      </c>
+      <c r="P22">
+        <f>(N22-O22)/N22</f>
+        <v>0.6</v>
+      </c>
+      <c r="R22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="13:18" x14ac:dyDescent="0.45">
+      <c r="M23">
+        <v>25</v>
+      </c>
+      <c r="N23">
+        <v>0.05</v>
+      </c>
+      <c r="O23">
+        <v>2</v>
+      </c>
+      <c r="P23">
+        <f>(N23-O23)/N23</f>
+        <v>-39</v>
+      </c>
+      <c r="R23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="13:18" x14ac:dyDescent="0.45">
+      <c r="M24">
+        <v>25</v>
+      </c>
+      <c r="N24">
+        <v>0.03</v>
+      </c>
+      <c r="O24">
+        <v>0.05</v>
+      </c>
+      <c r="P24">
+        <f>(N24-O24)/N24</f>
+        <v>-0.66666666666666685</v>
+      </c>
+      <c r="R24">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -5861,7 +7012,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8553,6 +9704,274 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CBB819C-DFC7-48F5-9D0A-50EA158F54EC}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="9">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>15.7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>22.4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>24.2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>28.2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <f>AVERAGEA(30.5, 35.5, 27, 29, 33.3)</f>
+        <v>31.060000000000002</v>
+      </c>
+      <c r="C7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <f xml:space="preserve"> AVERAGEA(33, 20, 26, 22, 24, 26, 27, 26.4, 14.5)</f>
+        <v>24.322222222222223</v>
+      </c>
+      <c r="C8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <f>AVERAGEA(17.5, 22.6, 23, 23.5, 21, 18, 28, 19.8, 25, 16.3, 22, 13.3)</f>
+        <v>20.833333333333336</v>
+      </c>
+      <c r="C9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <f>AVERAGEA(21.5, 20.3, 18.1, 18.8, 16, 10, 19, 17.4, 17, 17, 17.6, 12.3)</f>
+        <v>17.083333333333332</v>
+      </c>
+      <c r="C10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f>AVERAGE(15.6, 13.6, 14.4, 12.7, 13, 13.5, 11.9, 14.5, 13.7)</f>
+        <v>13.655555555555557</v>
+      </c>
+      <c r="C11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <f>AVERAGEA(14, 12, 12, 19.9, 11, 6, 11.5, 6.5, 11, 11)</f>
+        <v>11.49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E14" t="s">
+        <v>348</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>348</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>351</v>
+      </c>
+      <c r="E15" t="s">
+        <v>354</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>352</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F16">
+        <f>AVERAGEA(B16,B17)</f>
+        <v>8.245000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <f>AVERAGEA(B12)</f>
+        <v>11.49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>353</v>
+      </c>
+      <c r="E17" t="s">
+        <v>356</v>
+      </c>
+      <c r="F17">
+        <f>AVERAGE(B18:B22)</f>
+        <v>21.645444444444443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <f>AVERAGEA(B2,B11)</f>
+        <v>14.677777777777777</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <f>AVERAGEA(B3,B10)</f>
+        <v>18.041666666666664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <f>AVERAGEA(B4,B9)</f>
+        <v>21.616666666666667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <f>AVERAGEA(B5,B8)</f>
+        <v>24.261111111111113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <f>AVERAGEA(B7,B6)</f>
+        <v>29.630000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41241E12-746D-4363-B5E5-EF3289E89071}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -8675,195 +10094,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70AA0A0D-C8C4-4B95-9301-D0901FBE12F4}">
-  <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B6">
-        <v>1019</v>
-      </c>
-      <c r="C6">
-        <v>11190</v>
-      </c>
-      <c r="D6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G7" t="s">
-        <v>193</v>
-      </c>
-      <c r="H7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B8">
-        <v>1500</v>
-      </c>
-      <c r="C8">
-        <v>12000</v>
-      </c>
-      <c r="D8" t="s">
-        <v>178</v>
-      </c>
-      <c r="G8">
-        <f>AVERAGE(B8:B13)</f>
-        <v>630.16666666666663</v>
-      </c>
-      <c r="H8">
-        <f>AVERAGE(C8:C13)</f>
-        <v>2720.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B9">
-        <v>1400</v>
-      </c>
-      <c r="C9">
-        <v>3300</v>
-      </c>
-      <c r="D9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>180</v>
-      </c>
-      <c r="B10">
-        <v>500</v>
-      </c>
-      <c r="C10">
-        <v>500</v>
-      </c>
-      <c r="D10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>182</v>
-      </c>
-      <c r="B11">
-        <v>20</v>
-      </c>
-      <c r="C11">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>183</v>
-      </c>
-      <c r="B12">
-        <v>300</v>
-      </c>
-      <c r="C12">
-        <v>400</v>
-      </c>
-      <c r="D12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>185</v>
-      </c>
-      <c r="B13">
-        <v>61</v>
-      </c>
-      <c r="C13">
-        <v>99</v>
-      </c>
-      <c r="D13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>187</v>
-      </c>
-      <c r="B15">
-        <v>200</v>
-      </c>
-      <c r="C15">
-        <v>500</v>
-      </c>
-      <c r="F15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>198</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/VitalRates.xlsx
+++ b/VitalRates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jelly\Documents\ColoradoRiverInverts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E51E0F-2175-4E2F-81D1-3DE5E39DE3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8B2BC0-09CD-47ED-B976-4BFE123F7111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="17280" windowHeight="10522" firstSheet="20" activeTab="21" xr2:uid="{5BBB9DFD-573C-4E7C-88D7-10047BA5B2E6}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="17280" windowHeight="10522" firstSheet="20" activeTab="22" xr2:uid="{5BBB9DFD-573C-4E7C-88D7-10047BA5B2E6}"/>
   </bookViews>
   <sheets>
     <sheet name="To Read" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,8 @@
     <sheet name="Chiro Mortality Rates" sheetId="18" r:id="rId20"/>
     <sheet name="Sheet3" sheetId="19" r:id="rId21"/>
     <sheet name="Gammarus Survival Rates" sheetId="20" r:id="rId22"/>
-    <sheet name="Gammarus Mortality Rates" sheetId="22" r:id="rId23"/>
+    <sheet name="Sheet7" sheetId="25" r:id="rId23"/>
+    <sheet name="Gammarus Mortality Rates" sheetId="22" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -6128,7 +6129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BAB039-2530-4577-9F3B-6EE9D5C56715}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -6465,6 +6466,20 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3036D474-192E-46E4-BAEA-4B877C888235}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA253E9-1F1C-44C1-9CF5-B4F18C2F916B}">
   <dimension ref="A1:R24"/>
   <sheetViews>

--- a/VitalRates.xlsx
+++ b/VitalRates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jelly\Documents\ColoradoRiverInverts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8B2BC0-09CD-47ED-B976-4BFE123F7111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3762DC8F-E129-4561-849D-01B3C3ADBD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="17280" windowHeight="10522" firstSheet="20" activeTab="22" xr2:uid="{5BBB9DFD-573C-4E7C-88D7-10047BA5B2E6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="14595" firstSheet="14" activeTab="17" xr2:uid="{5BBB9DFD-573C-4E7C-88D7-10047BA5B2E6}"/>
   </bookViews>
   <sheets>
     <sheet name="To Read" sheetId="4" r:id="rId1"/>
@@ -1257,10 +1257,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5017,15 +5017,15 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8667F1D1-AF13-44F8-9E56-B9FD16EB0387}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>317</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>0.70297029702970293</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>317</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>0.70297029702970293</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>317</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>0.78712871287128716</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>317</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>1.0165016501650166</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>317</v>
       </c>
@@ -5155,24 +5155,24 @@
         <v>1.0165016501650166</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="S8" t="s">
         <v>223</v>
       </c>
-      <c r="B7">
+      <c r="T8">
         <v>1200</v>
       </c>
-      <c r="C7">
+      <c r="U8">
         <v>0.6855</v>
       </c>
-      <c r="D7" t="s">
+      <c r="V8" t="s">
         <v>307</v>
       </c>
-      <c r="E7">
+      <c r="W8">
         <v>2406.9299999999998</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
+      <c r="X8">
+        <f>T8/W8</f>
         <v>0.49856040682529201</v>
       </c>
     </row>
@@ -5508,7 +5508,7 @@
       <c r="G1" t="s">
         <v>337</v>
       </c>
-      <c r="L1" s="8"/>
+      <c r="L1" s="9"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
@@ -5533,7 +5533,7 @@
         <f>B2/F2</f>
         <v>3.4133333333333336</v>
       </c>
-      <c r="L2" s="8"/>
+      <c r="L2" s="9"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
@@ -5558,7 +5558,7 @@
         <f t="shared" ref="G3:G4" si="0">B3/F3</f>
         <v>552</v>
       </c>
-      <c r="L3" s="8"/>
+      <c r="L3" s="9"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -5583,7 +5583,7 @@
         <f t="shared" si="0"/>
         <v>22.066666666666666</v>
       </c>
-      <c r="L4" s="8"/>
+      <c r="L4" s="9"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -5611,7 +5611,7 @@
         <f t="shared" ref="G5:G10" si="1">B5/F5</f>
         <v>0.20148148148148148</v>
       </c>
-      <c r="L5" s="8"/>
+      <c r="L5" s="9"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -5639,7 +5639,7 @@
         <f t="shared" si="1"/>
         <v>0.20148148148148148</v>
       </c>
-      <c r="L6" s="8"/>
+      <c r="L6" s="9"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -5667,7 +5667,7 @@
         <f t="shared" si="1"/>
         <v>0.34</v>
       </c>
-      <c r="L7" s="8"/>
+      <c r="L7" s="9"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -5695,7 +5695,7 @@
         <f t="shared" si="1"/>
         <v>0.17444444444444443</v>
       </c>
-      <c r="L8" s="8"/>
+      <c r="L8" s="9"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -6172,7 +6172,7 @@
         <v>10.021321961620499</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C22" si="0">(100-B3)/100</f>
+        <f t="shared" ref="C3:C17" si="0">(100-B3)/100</f>
         <v>0.899786780383795</v>
       </c>
       <c r="D3" t="s">
@@ -6469,7 +6469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3036D474-192E-46E4-BAEA-4B877C888235}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -6548,7 +6548,7 @@
         <v>308</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D14" si="0">(B3-C3)/B3</f>
+        <f t="shared" ref="D3:D10" si="0">(B3-C3)/B3</f>
         <v>0.63376932223543403</v>
       </c>
       <c r="E3" t="s">
@@ -9737,7 +9737,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>9</v>
       </c>
       <c r="B2">

--- a/VitalRates.xlsx
+++ b/VitalRates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jelly\Documents\ColoradoRiverInverts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3762DC8F-E129-4561-849D-01B3C3ADBD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7076E8A-FBB7-404A-A689-7F9B5D938C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="14595" firstSheet="14" activeTab="17" xr2:uid="{5BBB9DFD-573C-4E7C-88D7-10047BA5B2E6}"/>
+    <workbookView xWindow="3615" yWindow="3615" windowWidth="17280" windowHeight="10522" firstSheet="15" activeTab="17" xr2:uid="{5BBB9DFD-573C-4E7C-88D7-10047BA5B2E6}"/>
   </bookViews>
   <sheets>
     <sheet name="To Read" sheetId="4" r:id="rId1"/>
@@ -4939,7 +4939,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5017,15 +5017,15 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8667F1D1-AF13-44F8-9E56-B9FD16EB0387}">
-  <dimension ref="A1:X8"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>317</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>0.70297029702970293</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>317</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>0.70297029702970293</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>317</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>0.78712871287128716</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>317</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>1.0165016501650166</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>317</v>
       </c>
@@ -5155,24 +5155,24 @@
         <v>1.0165016501650166</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="S8" t="s">
-        <v>223</v>
-      </c>
-      <c r="T8">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="K7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L7">
         <v>1200</v>
       </c>
-      <c r="U8">
+      <c r="M7">
         <v>0.6855</v>
       </c>
-      <c r="V8" t="s">
+      <c r="N7" t="s">
         <v>307</v>
       </c>
-      <c r="W8">
+      <c r="O7">
         <v>2406.9299999999998</v>
       </c>
-      <c r="X8">
-        <f>T8/W8</f>
+      <c r="P7">
+        <f>L7/O7</f>
         <v>0.49856040682529201</v>
       </c>
     </row>

--- a/VitalRates.xlsx
+++ b/VitalRates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jelly\Documents\ColoradoRiverInverts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7076E8A-FBB7-404A-A689-7F9B5D938C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DD39D2-DFF3-4B76-B651-12BD0D1B8F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="3615" windowWidth="17280" windowHeight="10522" firstSheet="15" activeTab="17" xr2:uid="{5BBB9DFD-573C-4E7C-88D7-10047BA5B2E6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="14595" firstSheet="14" activeTab="15" xr2:uid="{5BBB9DFD-573C-4E7C-88D7-10047BA5B2E6}"/>
   </bookViews>
   <sheets>
     <sheet name="To Read" sheetId="4" r:id="rId1"/>
@@ -27,16 +27,17 @@
     <sheet name="Baetid Mortality Rates" sheetId="10" r:id="rId12"/>
     <sheet name="Hydropsyche Survival Rates " sheetId="16" r:id="rId13"/>
     <sheet name="Sheet5" sheetId="23" r:id="rId14"/>
-    <sheet name="Chiro Survival" sheetId="17" r:id="rId15"/>
-    <sheet name="Baetid Survival Rates" sheetId="12" r:id="rId16"/>
-    <sheet name="NZMS Survival Rates" sheetId="14" r:id="rId17"/>
-    <sheet name="NZMS Mortality Rates" sheetId="11" r:id="rId18"/>
-    <sheet name="Hydropsyche Mortality Rates" sheetId="9" r:id="rId19"/>
-    <sheet name="Chiro Mortality Rates" sheetId="18" r:id="rId20"/>
-    <sheet name="Sheet3" sheetId="19" r:id="rId21"/>
-    <sheet name="Gammarus Survival Rates" sheetId="20" r:id="rId22"/>
-    <sheet name="Sheet7" sheetId="25" r:id="rId23"/>
-    <sheet name="Gammarus Mortality Rates" sheetId="22" r:id="rId24"/>
+    <sheet name="Sheet4" sheetId="26" r:id="rId15"/>
+    <sheet name="Chiro Survival" sheetId="17" r:id="rId16"/>
+    <sheet name="Baetid Survival Rates" sheetId="12" r:id="rId17"/>
+    <sheet name="NZMS Survival Rates" sheetId="14" r:id="rId18"/>
+    <sheet name="NZMS Mortality Rates" sheetId="11" r:id="rId19"/>
+    <sheet name="Hydropsyche Mortality Rates" sheetId="9" r:id="rId20"/>
+    <sheet name="Chiro Mortality Rates" sheetId="18" r:id="rId21"/>
+    <sheet name="Sheet3" sheetId="19" r:id="rId22"/>
+    <sheet name="Gammarus Survival Rates" sheetId="20" r:id="rId23"/>
+    <sheet name="Sheet7" sheetId="25" r:id="rId24"/>
+    <sheet name="Gammarus Mortality Rates" sheetId="22" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="370">
   <si>
     <t>Species</t>
   </si>
@@ -1172,12 +1173,21 @@
   <si>
     <t>J2</t>
   </si>
+  <si>
+    <t xml:space="preserve">There 0s are to make sure that the code doesn't "spike" and go to inf (neg exp model has no limits) close to 0 on the x axis </t>
+  </si>
+  <si>
+    <t>Shah 2018</t>
+  </si>
+  <si>
+    <t>Giberson and Rosenburg 1992</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1224,6 +1234,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="5"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1246,7 +1262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1258,6 +1274,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1579,7 +1598,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3712,7 +3731,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4408,11 +4427,23 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A86935-61D9-435D-A437-8153999ECA7E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C77117-34E9-45B5-AFFE-43A5629D5643}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4430,503 +4461,363 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>37</v>
-      </c>
-      <c r="B2" s="7">
-        <v>0.2</v>
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="C2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>32</v>
-      </c>
-      <c r="B3" s="7">
-        <v>0.5</v>
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0.16437625080000001</v>
       </c>
       <c r="C3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1E-4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0.4480741547</v>
+      </c>
+      <c r="C5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0.30897791499999999</v>
+      </c>
+      <c r="C6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>0.69146448510000003</v>
+      </c>
+      <c r="C7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>0.84645904289999996</v>
+      </c>
+      <c r="C8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>0.54506513109999999</v>
+      </c>
+      <c r="C9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0.95137108950000004</v>
+      </c>
+      <c r="C10" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>35</v>
+      </c>
+      <c r="B12" s="7">
+        <v>3.2099999999999997E-2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="C13" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="C14" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>22</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.753</v>
+      </c>
+      <c r="C15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>25</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.753</v>
+      </c>
+      <c r="C16" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>28</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="C17" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>30</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>343</v>
+      </c>
+      <c r="J18">
+        <v>37</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="L18" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>32</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="C19" t="s">
+        <v>343</v>
+      </c>
+      <c r="J19">
+        <v>32</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="L19" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J20">
         <v>27</v>
       </c>
-      <c r="B4">
+      <c r="K20">
         <f>1-0.467</f>
         <v>0.53299999999999992</v>
       </c>
-      <c r="C4" t="s">
+      <c r="L20" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J21">
         <v>22</v>
       </c>
-      <c r="B5">
+      <c r="K21">
         <f>1-0.458</f>
         <v>0.54200000000000004</v>
       </c>
-      <c r="C5" t="s">
+      <c r="L21" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J22">
+        <v>37.5</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J23">
         <v>35</v>
       </c>
-      <c r="B6">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0.16437625080000001</v>
-      </c>
-      <c r="C7" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>1E-4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>0.4480741547</v>
-      </c>
-      <c r="C9" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.30897791499999999</v>
-      </c>
-      <c r="C10" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>0.69146448510000003</v>
-      </c>
-      <c r="C11" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>0.84645904289999996</v>
-      </c>
-      <c r="C12" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.54506513109999999</v>
-      </c>
-      <c r="C13" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>18</v>
-      </c>
-      <c r="B14">
-        <v>0.95137108950000004</v>
-      </c>
-      <c r="C14" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>37.5</v>
-      </c>
-      <c r="B15" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="K23" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="L23" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>35</v>
-      </c>
-      <c r="B16" s="7">
-        <v>0.42</v>
-      </c>
-      <c r="C16" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J24">
+        <v>32.5</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L24" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>32.5</v>
-      </c>
-      <c r="B17" s="7">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J25">
+        <v>30</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="L25" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <v>30</v>
-      </c>
-      <c r="B18" s="7">
-        <v>0.37</v>
-      </c>
-      <c r="C18" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J26">
+        <v>27.5</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="L26" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>27.5</v>
-      </c>
-      <c r="B19" s="7">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J27">
+        <v>25</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0.54</v>
+      </c>
+      <c r="L27" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J28">
+        <v>22.5</v>
+      </c>
+      <c r="K28" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="L28" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J29">
+        <v>20</v>
+      </c>
+      <c r="K29" s="7">
         <v>0.6</v>
       </c>
-      <c r="C19" t="s">
+      <c r="L29" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>25</v>
-      </c>
-      <c r="B20" s="7">
-        <v>0.54</v>
-      </c>
-      <c r="C20" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J30">
+        <v>17.5</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="L30" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>22.5</v>
-      </c>
-      <c r="B21" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J31">
+        <v>15</v>
+      </c>
+      <c r="K31" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="L31" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="C22" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J32">
+        <v>12.5</v>
+      </c>
+      <c r="K32" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L32" t="s">
         <v>339</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <v>17.5</v>
-      </c>
-      <c r="B23" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24">
-        <v>15</v>
-      </c>
-      <c r="B24" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="C24" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25">
-        <v>12.5</v>
-      </c>
-      <c r="B25" s="7">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="C25" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26">
-        <v>5</v>
-      </c>
-      <c r="B26" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27">
-        <v>35</v>
-      </c>
-      <c r="B27" s="7">
-        <v>3.2099999999999997E-2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28">
-        <v>15</v>
-      </c>
-      <c r="B28" s="7">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="C28" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29">
-        <v>20</v>
-      </c>
-      <c r="B29" s="7">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="C29" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30">
-        <v>22</v>
-      </c>
-      <c r="B30" s="7">
-        <v>0.753</v>
-      </c>
-      <c r="C30" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31">
-        <v>25</v>
-      </c>
-      <c r="B31" s="7">
-        <v>0.753</v>
-      </c>
-      <c r="C31" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32">
-        <v>28</v>
-      </c>
-      <c r="B32" s="7">
-        <v>0.82399999999999995</v>
-      </c>
-      <c r="C32" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33">
-        <v>30</v>
-      </c>
-      <c r="B33" s="7">
-        <v>0.78</v>
-      </c>
-      <c r="C33" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34" s="7">
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="C34" t="s">
-        <v>343</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648851F1-1B76-483B-BD38-93D8FC0F4DDF}">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>12.1</v>
-      </c>
-      <c r="B2">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="C2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>14.3</v>
-      </c>
-      <c r="B3">
-        <v>0.629</v>
-      </c>
-      <c r="C3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>16.2</v>
-      </c>
-      <c r="B4">
-        <v>0.85399999999999998</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>20.2</v>
-      </c>
-      <c r="B5">
-        <v>0.871</v>
-      </c>
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>21.2</v>
-      </c>
-      <c r="B6">
-        <v>0.87</v>
-      </c>
-      <c r="C6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>23.9</v>
-      </c>
-      <c r="B7">
-        <v>0.79</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>27.8</v>
-      </c>
-      <c r="B8">
-        <v>0.70499999999999996</v>
-      </c>
-      <c r="C8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>30</v>
-      </c>
-      <c r="B9">
-        <v>0.74299999999999999</v>
-      </c>
-      <c r="C9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>31.7</v>
-      </c>
-      <c r="B10">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="C10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>33.5</v>
-      </c>
-      <c r="B11">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4935,6 +4826,288 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648851F1-1B76-483B-BD38-93D8FC0F4DDF}">
+  <dimension ref="A1:P25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>12.1</v>
+      </c>
+      <c r="B2">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>14.3</v>
+      </c>
+      <c r="B3">
+        <v>0.629</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>16.2</v>
+      </c>
+      <c r="B4">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>20.2</v>
+      </c>
+      <c r="B5">
+        <v>0.871</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>21.2</v>
+      </c>
+      <c r="B6">
+        <v>0.87</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>23.9</v>
+      </c>
+      <c r="B7">
+        <v>0.79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>27.8</v>
+      </c>
+      <c r="B8">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>31.7</v>
+      </c>
+      <c r="B10">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>33.5</v>
+      </c>
+      <c r="B11">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>0.87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>0.74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>12.5</v>
+      </c>
+      <c r="B14">
+        <v>0.99999000000000005</v>
+      </c>
+      <c r="C14" t="s">
+        <v>369</v>
+      </c>
+      <c r="K14" s="9">
+        <v>-14.27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0.95</v>
+      </c>
+      <c r="C15" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>0.4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="C17" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>0.87</v>
+      </c>
+      <c r="C18" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>12.5</v>
+      </c>
+      <c r="B19">
+        <v>0.87</v>
+      </c>
+      <c r="C19" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>0.95</v>
+      </c>
+      <c r="C20" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.88</v>
+      </c>
+      <c r="C21" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="N23">
+        <v>0.5</v>
+      </c>
+      <c r="O23">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="P23" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="N24">
+        <v>0.4</v>
+      </c>
+      <c r="O24">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="P24" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="N25">
+        <v>0.8</v>
+      </c>
+      <c r="O25">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="P25" t="s">
+        <v>368</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4A60B5-2702-4A70-9CB2-3B17A88B6CEB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -5015,11 +5188,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8667F1D1-AF13-44F8-9E56-B9FD16EB0387}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -5063,7 +5236,7 @@
         <v>60.6</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F7" si="0">B2/E2</f>
+        <f t="shared" ref="F2:F6" si="0">B2/E2</f>
         <v>0.70297029702970293</v>
       </c>
     </row>
@@ -5179,176 +5352,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA852ABF-0DF7-4B9A-84AF-ADD0D07630EA}">
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B2">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E2">
-        <v>2.3148148148000001</v>
-      </c>
-      <c r="F2">
-        <f>B2/E2</f>
-        <v>1.7755200000113633</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B3">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>320</v>
-      </c>
-      <c r="E3">
-        <v>2.3148148148000001</v>
-      </c>
-      <c r="F3">
-        <f>B3/E3</f>
-        <v>1.7755200000113633</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>302</v>
-      </c>
-      <c r="B4">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>320</v>
-      </c>
-      <c r="E4">
-        <v>2.3148148148000001</v>
-      </c>
-      <c r="F4">
-        <f>B4/E4</f>
-        <v>1.7755200000113633</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2897.99</v>
-      </c>
-      <c r="C5">
-        <f>1- (4/1586)</f>
-        <v>0.99747793190416145</v>
-      </c>
-      <c r="D5" t="s">
-        <v>319</v>
-      </c>
-      <c r="E5" s="5">
-        <v>3776</v>
-      </c>
-      <c r="F5">
-        <f>B5/E5</f>
-        <v>0.76747616525423723</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>316</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2897.99</v>
-      </c>
-      <c r="C6">
-        <f>1-(1/54)</f>
-        <v>0.98148148148148151</v>
-      </c>
-      <c r="D6" t="s">
-        <v>319</v>
-      </c>
-      <c r="E6" s="5">
-        <v>3776</v>
-      </c>
-      <c r="F6">
-        <f>B6/E6</f>
-        <v>0.76747616525423723</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H18" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5476,11 +5479,181 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA852ABF-0DF7-4B9A-84AF-ADD0D07630EA}">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E2">
+        <v>2.3148148148000001</v>
+      </c>
+      <c r="F2">
+        <f>B2/E2</f>
+        <v>1.7755200000113633</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E3">
+        <v>2.3148148148000001</v>
+      </c>
+      <c r="F3">
+        <f>B3/E3</f>
+        <v>1.7755200000113633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B4">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>320</v>
+      </c>
+      <c r="E4">
+        <v>2.3148148148000001</v>
+      </c>
+      <c r="F4">
+        <f>B4/E4</f>
+        <v>1.7755200000113633</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2897.99</v>
+      </c>
+      <c r="C5">
+        <f>1- (4/1586)</f>
+        <v>0.99747793190416145</v>
+      </c>
+      <c r="D5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3776</v>
+      </c>
+      <c r="F5">
+        <f>B5/E5</f>
+        <v>0.76747616525423723</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2897.99</v>
+      </c>
+      <c r="C6">
+        <f>1-(1/54)</f>
+        <v>0.98148148148148151</v>
+      </c>
+      <c r="D6" t="s">
+        <v>319</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3776</v>
+      </c>
+      <c r="F6">
+        <f>B6/E6</f>
+        <v>0.76747616525423723</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H18" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826C251F-8D33-462C-AE02-50288781B133}">
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5508,7 +5681,7 @@
       <c r="G1" t="s">
         <v>337</v>
       </c>
-      <c r="L1" s="9"/>
+      <c r="L1" s="10"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
@@ -5533,7 +5706,7 @@
         <f>B2/F2</f>
         <v>3.4133333333333336</v>
       </c>
-      <c r="L2" s="9"/>
+      <c r="L2" s="10"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
@@ -5558,7 +5731,7 @@
         <f t="shared" ref="G3:G4" si="0">B3/F3</f>
         <v>552</v>
       </c>
-      <c r="L3" s="9"/>
+      <c r="L3" s="10"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -5583,7 +5756,7 @@
         <f t="shared" si="0"/>
         <v>22.066666666666666</v>
       </c>
-      <c r="L4" s="9"/>
+      <c r="L4" s="10"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -5611,7 +5784,7 @@
         <f t="shared" ref="G5:G10" si="1">B5/F5</f>
         <v>0.20148148148148148</v>
       </c>
-      <c r="L5" s="9"/>
+      <c r="L5" s="10"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -5639,7 +5812,7 @@
         <f t="shared" si="1"/>
         <v>0.20148148148148148</v>
       </c>
-      <c r="L6" s="9"/>
+      <c r="L6" s="10"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -5667,7 +5840,7 @@
         <f t="shared" si="1"/>
         <v>0.34</v>
       </c>
-      <c r="L7" s="9"/>
+      <c r="L7" s="10"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -5695,7 +5868,7 @@
         <f t="shared" si="1"/>
         <v>0.17444444444444443</v>
       </c>
-      <c r="L8" s="9"/>
+      <c r="L8" s="10"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -6000,7 +6173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D5572D-33FE-4713-A31D-A4A12D21A4AC}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -6125,12 +6298,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BAB039-2530-4577-9F3B-6EE9D5C56715}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6465,7 +6638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3036D474-192E-46E4-BAEA-4B877C888235}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6479,17 +6652,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA253E9-1F1C-44C1-9CF5-B4F18C2F916B}">
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>111</v>
       </c>
@@ -6512,7 +6685,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>10</v>
       </c>
@@ -6537,7 +6710,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>25</v>
       </c>
@@ -6562,7 +6735,7 @@
         <v>2.0833333333333335</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>10</v>
       </c>
@@ -6587,7 +6760,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>20</v>
       </c>
@@ -6612,7 +6785,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>11.5</v>
       </c>
@@ -6637,7 +6810,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>30</v>
       </c>
@@ -6662,7 +6835,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>12.1</v>
       </c>
@@ -6687,7 +6860,7 @@
         <v>1.0083333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>40</v>
       </c>
@@ -6712,7 +6885,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>10</v>
       </c>
@@ -6737,120 +6910,39 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="F11">
-        <v>12</v>
-      </c>
       <c r="G11">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H11" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="F12">
-        <v>12</v>
-      </c>
       <c r="G12">
         <v>0.23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="F13">
-        <v>12</v>
-      </c>
       <c r="G13">
         <v>0.15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="F14">
-        <v>12</v>
-      </c>
       <c r="G14">
         <v>0.17</v>
-      </c>
-    </row>
-    <row r="21" spans="13:18" x14ac:dyDescent="0.45">
-      <c r="M21">
-        <v>25</v>
-      </c>
-      <c r="N21">
-        <v>2119</v>
-      </c>
-      <c r="O21">
-        <v>58.7</v>
-      </c>
-      <c r="P21">
-        <f>(N21-O21)/N21</f>
-        <v>0.97229825389334601</v>
-      </c>
-      <c r="R21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="13:18" x14ac:dyDescent="0.45">
-      <c r="M22">
-        <v>25</v>
-      </c>
-      <c r="N22">
-        <v>110</v>
-      </c>
-      <c r="O22">
-        <v>44</v>
-      </c>
-      <c r="P22">
-        <f>(N22-O22)/N22</f>
-        <v>0.6</v>
-      </c>
-      <c r="R22">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="13:18" x14ac:dyDescent="0.45">
-      <c r="M23">
-        <v>25</v>
-      </c>
-      <c r="N23">
-        <v>0.05</v>
-      </c>
-      <c r="O23">
-        <v>2</v>
-      </c>
-      <c r="P23">
-        <f>(N23-O23)/N23</f>
-        <v>-39</v>
-      </c>
-      <c r="R23">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="13:18" x14ac:dyDescent="0.45">
-      <c r="M24">
-        <v>25</v>
-      </c>
-      <c r="N24">
-        <v>0.03</v>
-      </c>
-      <c r="O24">
-        <v>0.05</v>
-      </c>
-      <c r="P24">
-        <f>(N24-O24)/N24</f>
-        <v>-0.66666666666666685</v>
-      </c>
-      <c r="R24">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -6862,7 +6954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305DC818-8D3E-47F5-BCDD-83A34CDBCF1D}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="C6" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -9286,8 +9378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B15538-3D4C-42EE-ABFF-D3D33EC7F6D4}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="I1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/VitalRates.xlsx
+++ b/VitalRates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jelly\Documents\ColoradoRiverInverts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DD39D2-DFF3-4B76-B651-12BD0D1B8F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E876BDAF-1D9D-446B-8149-858A0C31B084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="14595" firstSheet="14" activeTab="15" xr2:uid="{5BBB9DFD-573C-4E7C-88D7-10047BA5B2E6}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="17280" windowHeight="10523" firstSheet="17" activeTab="18" xr2:uid="{5BBB9DFD-573C-4E7C-88D7-10047BA5B2E6}"/>
   </bookViews>
   <sheets>
     <sheet name="To Read" sheetId="4" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="370">
   <si>
     <t>Species</t>
   </si>
@@ -4442,7 +4442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C77117-34E9-45B5-AFFE-43A5629D5643}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D5"/>
     </sheetView>
   </sheetViews>
@@ -5190,15 +5190,15 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8667F1D1-AF13-44F8-9E56-B9FD16EB0387}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>317</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>0.70297029702970293</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>317</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>0.70297029702970293</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>317</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>0.78712871287128716</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>317</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>1.0165016501650166</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>317</v>
       </c>
@@ -5326,27 +5326,6 @@
       <c r="F6">
         <f t="shared" si="0"/>
         <v>1.0165016501650166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="K7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L7">
-        <v>1200</v>
-      </c>
-      <c r="M7">
-        <v>0.6855</v>
-      </c>
-      <c r="N7" t="s">
-        <v>307</v>
-      </c>
-      <c r="O7">
-        <v>2406.9299999999998</v>
-      </c>
-      <c r="P7">
-        <f>L7/O7</f>
-        <v>0.49856040682529201</v>
       </c>
     </row>
   </sheetData>
